--- a/Output/TopPercentage_Report_Rebalancing_BR.xlsx
+++ b/Output/TopPercentage_Report_Rebalancing_BR.xlsx
@@ -436,25 +436,25 @@
         <v>41078</v>
       </c>
       <c r="B2">
-        <v>357735673.2279</v>
+        <v>330000000</v>
       </c>
       <c r="C2">
-        <v>411396024.212085</v>
+        <v>379500000</v>
       </c>
       <c r="D2">
-        <v>178867836.61395</v>
+        <v>165000000</v>
       </c>
       <c r="E2">
-        <v>178867836.61395</v>
+        <v>165000000</v>
       </c>
       <c r="F2">
-        <v>205698012.1060425</v>
+        <v>189750000</v>
       </c>
       <c r="G2">
-        <v>89433918.30697501</v>
+        <v>82500000</v>
       </c>
       <c r="H2">
-        <v>4591</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -462,25 +462,25 @@
         <v>41176</v>
       </c>
       <c r="B3">
-        <v>425085831.8800001</v>
+        <v>360092536.0769</v>
       </c>
       <c r="C3">
-        <v>488848706.662</v>
+        <v>414106416.488435</v>
       </c>
       <c r="D3">
-        <v>212542915.94</v>
+        <v>180046268.03845</v>
       </c>
       <c r="E3">
-        <v>212542915.94</v>
+        <v>180046268.03845</v>
       </c>
       <c r="F3">
-        <v>244424353.331</v>
+        <v>207053208.2442175</v>
       </c>
       <c r="G3">
-        <v>106271457.97</v>
+        <v>90023134.019225</v>
       </c>
       <c r="H3">
-        <v>4706</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -488,25 +488,25 @@
         <v>41267</v>
       </c>
       <c r="B4">
-        <v>432069038.78991</v>
+        <v>356818259.9018525</v>
       </c>
       <c r="C4">
-        <v>496879394.6083965</v>
+        <v>410340998.8871304</v>
       </c>
       <c r="D4">
-        <v>216034519.394955</v>
+        <v>178409129.9509263</v>
       </c>
       <c r="E4">
-        <v>216034519.394955</v>
+        <v>178409129.9509263</v>
       </c>
       <c r="F4">
-        <v>248439697.3041982</v>
+        <v>205170499.4435652</v>
       </c>
       <c r="G4">
-        <v>108017259.6974775</v>
+        <v>89204564.97546314</v>
       </c>
       <c r="H4">
-        <v>4706</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -514,25 +514,25 @@
         <v>41351</v>
       </c>
       <c r="B5">
-        <v>471901851.5770721</v>
+        <v>395868400.26804</v>
       </c>
       <c r="C5">
-        <v>542687129.3136328</v>
+        <v>455248660.308246</v>
       </c>
       <c r="D5">
-        <v>235950925.788536</v>
+        <v>197934200.13402</v>
       </c>
       <c r="E5">
-        <v>235950925.788536</v>
+        <v>197934200.13402</v>
       </c>
       <c r="F5">
-        <v>271343564.6568164</v>
+        <v>227624330.154123</v>
       </c>
       <c r="G5">
-        <v>117975462.894268</v>
+        <v>98967100.06701</v>
       </c>
       <c r="H5">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -540,25 +540,25 @@
         <v>41449</v>
       </c>
       <c r="B6">
-        <v>478985410.5404159</v>
+        <v>389117589.7523462</v>
       </c>
       <c r="C6">
-        <v>550833222.1214783</v>
+        <v>447485228.2151981</v>
       </c>
       <c r="D6">
-        <v>239492705.270208</v>
+        <v>194558794.8761731</v>
       </c>
       <c r="E6">
-        <v>239492705.270208</v>
+        <v>194558794.8761731</v>
       </c>
       <c r="F6">
-        <v>275416611.0607392</v>
+        <v>223742614.107599</v>
       </c>
       <c r="G6">
-        <v>119746352.635104</v>
+        <v>97279397.43808655</v>
       </c>
       <c r="H6">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -566,25 +566,25 @@
         <v>41540</v>
       </c>
       <c r="B7">
-        <v>495884443.69752</v>
+        <v>411400138.8087488</v>
       </c>
       <c r="C7">
-        <v>570267110.252148</v>
+        <v>473110159.6300611</v>
       </c>
       <c r="D7">
-        <v>247942221.84876</v>
+        <v>205700069.4043744</v>
       </c>
       <c r="E7">
-        <v>247942221.84876</v>
+        <v>205700069.4043744</v>
       </c>
       <c r="F7">
-        <v>285133555.126074</v>
+        <v>236555079.8150306</v>
       </c>
       <c r="G7">
-        <v>123971110.92438</v>
+        <v>102850034.7021872</v>
       </c>
       <c r="H7">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -592,25 +592,25 @@
         <v>41631</v>
       </c>
       <c r="B8">
-        <v>530063248.4671986</v>
+        <v>425173821.671106</v>
       </c>
       <c r="C8">
-        <v>609572735.7372783</v>
+        <v>488949894.9217718</v>
       </c>
       <c r="D8">
-        <v>265031624.2335993</v>
+        <v>212586910.835553</v>
       </c>
       <c r="E8">
-        <v>265031624.2335993</v>
+        <v>212586910.835553</v>
       </c>
       <c r="F8">
-        <v>304786367.8686392</v>
+        <v>244474947.4608859</v>
       </c>
       <c r="G8">
-        <v>132515812.1167996</v>
+        <v>106293455.4177765</v>
       </c>
       <c r="H8">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -618,25 +618,25 @@
         <v>41722</v>
       </c>
       <c r="B9">
-        <v>545549869.2969218</v>
+        <v>467951123.188209</v>
       </c>
       <c r="C9">
-        <v>627382349.6914601</v>
+        <v>538143791.6664402</v>
       </c>
       <c r="D9">
-        <v>272774934.6484609</v>
+        <v>233975561.5941045</v>
       </c>
       <c r="E9">
-        <v>272774934.6484609</v>
+        <v>233975561.5941045</v>
       </c>
       <c r="F9">
-        <v>313691174.8457301</v>
+        <v>269071895.8332201</v>
       </c>
       <c r="G9">
-        <v>136387467.3242305</v>
+        <v>116987780.7970522</v>
       </c>
       <c r="H9">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -644,25 +644,25 @@
         <v>41813</v>
       </c>
       <c r="B10">
-        <v>557313220.8</v>
+        <v>455882784.1209238</v>
       </c>
       <c r="C10">
-        <v>640910203.9199998</v>
+        <v>524265201.7390623</v>
       </c>
       <c r="D10">
-        <v>278656610.4</v>
+        <v>227941392.0604619</v>
       </c>
       <c r="E10">
-        <v>278656610.4</v>
+        <v>227941392.0604619</v>
       </c>
       <c r="F10">
-        <v>320455101.9599999</v>
+        <v>262132600.8695312</v>
       </c>
       <c r="G10">
-        <v>139328305.2</v>
+        <v>113970696.0302309</v>
       </c>
       <c r="H10">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -670,25 +670,25 @@
         <v>41904</v>
       </c>
       <c r="B11">
-        <v>617297400.0181439</v>
+        <v>541242364.06457</v>
       </c>
       <c r="C11">
-        <v>709892010.0208654</v>
+        <v>622428718.6742554</v>
       </c>
       <c r="D11">
-        <v>308648700.0090719</v>
+        <v>270621182.032285</v>
       </c>
       <c r="E11">
-        <v>308648700.0090719</v>
+        <v>270621182.032285</v>
       </c>
       <c r="F11">
-        <v>354946005.0104327</v>
+        <v>311214359.3371277</v>
       </c>
       <c r="G11">
-        <v>154324350.004536</v>
+        <v>135310591.0161425</v>
       </c>
       <c r="H11">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -696,25 +696,25 @@
         <v>41995</v>
       </c>
       <c r="B12">
-        <v>567593746.541242</v>
+        <v>470906313.5062275</v>
       </c>
       <c r="C12">
-        <v>652732808.5224283</v>
+        <v>541542260.5321616</v>
       </c>
       <c r="D12">
-        <v>283796873.270621</v>
+        <v>235453156.7531137</v>
       </c>
       <c r="E12">
-        <v>283796873.270621</v>
+        <v>235453156.7531137</v>
       </c>
       <c r="F12">
-        <v>326366404.2612141</v>
+        <v>270771130.2660808</v>
       </c>
       <c r="G12">
-        <v>141898436.6353105</v>
+        <v>117726578.3765569</v>
       </c>
       <c r="H12">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -722,25 +722,25 @@
         <v>42086</v>
       </c>
       <c r="B13">
-        <v>590471431.3426598</v>
+        <v>510409840.9399418</v>
       </c>
       <c r="C13">
-        <v>679042146.0440588</v>
+        <v>586971317.080933</v>
       </c>
       <c r="D13">
-        <v>295235715.6713299</v>
+        <v>255204920.4699709</v>
       </c>
       <c r="E13">
-        <v>295235715.6713299</v>
+        <v>255204920.4699709</v>
       </c>
       <c r="F13">
-        <v>339521073.0220294</v>
+        <v>293485658.5404665</v>
       </c>
       <c r="G13">
-        <v>147617857.835665</v>
+        <v>127602460.2349854</v>
       </c>
       <c r="H13">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -748,25 +748,25 @@
         <v>42177</v>
       </c>
       <c r="B14">
-        <v>612685296.23408</v>
+        <v>513685645.5062701</v>
       </c>
       <c r="C14">
-        <v>704588090.6691918</v>
+        <v>590738492.3322105</v>
       </c>
       <c r="D14">
-        <v>306342648.11704</v>
+        <v>256842822.753135</v>
       </c>
       <c r="E14">
-        <v>306342648.11704</v>
+        <v>256842822.753135</v>
       </c>
       <c r="F14">
-        <v>352294045.3345959</v>
+        <v>295369246.1661053</v>
       </c>
       <c r="G14">
-        <v>153171324.05852</v>
+        <v>128421411.3765675</v>
       </c>
       <c r="H14">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -774,25 +774,25 @@
         <v>42268</v>
       </c>
       <c r="B15">
-        <v>585810587.7357048</v>
+        <v>507869481.8877121</v>
       </c>
       <c r="C15">
-        <v>673682175.8960605</v>
+        <v>584049904.1708689</v>
       </c>
       <c r="D15">
-        <v>292905293.8678524</v>
+        <v>253934740.9438561</v>
       </c>
       <c r="E15">
-        <v>292905293.8678524</v>
+        <v>253934740.9438561</v>
       </c>
       <c r="F15">
-        <v>336841087.9480302</v>
+        <v>292024952.0854344</v>
       </c>
       <c r="G15">
-        <v>146452646.9339262</v>
+        <v>126967370.471928</v>
       </c>
       <c r="H15">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -800,25 +800,25 @@
         <v>42359</v>
       </c>
       <c r="B16">
-        <v>596672344.0662739</v>
+        <v>495752055.3393528</v>
       </c>
       <c r="C16">
-        <v>686173195.6762149</v>
+        <v>570114863.6402557</v>
       </c>
       <c r="D16">
-        <v>298336172.033137</v>
+        <v>247876027.6696764</v>
       </c>
       <c r="E16">
-        <v>298336172.033137</v>
+        <v>247876027.6696764</v>
       </c>
       <c r="F16">
-        <v>343086597.8381075</v>
+        <v>285057431.8201278</v>
       </c>
       <c r="G16">
-        <v>149168086.0165685</v>
+        <v>123938013.8348382</v>
       </c>
       <c r="H16">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -826,25 +826,25 @@
         <v>42450</v>
       </c>
       <c r="B17">
-        <v>519520935.5</v>
+        <v>453153079.9198</v>
       </c>
       <c r="C17">
-        <v>597449075.8249999</v>
+        <v>521126041.9077699</v>
       </c>
       <c r="D17">
-        <v>259760467.75</v>
+        <v>226576539.9599</v>
       </c>
       <c r="E17">
-        <v>259760467.75</v>
+        <v>226576539.9599</v>
       </c>
       <c r="F17">
-        <v>298724537.9125</v>
+        <v>260563020.953885</v>
       </c>
       <c r="G17">
-        <v>129880233.875</v>
+        <v>113288269.97995</v>
       </c>
       <c r="H17">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -852,25 +852,25 @@
         <v>42541</v>
       </c>
       <c r="B18">
-        <v>599815331.6010225</v>
+        <v>482762369.3952001</v>
       </c>
       <c r="C18">
-        <v>689787631.3411758</v>
+        <v>555176724.8044801</v>
       </c>
       <c r="D18">
-        <v>299907665.8005112</v>
+        <v>241381184.6976</v>
       </c>
       <c r="E18">
-        <v>299907665.8005112</v>
+        <v>241381184.6976</v>
       </c>
       <c r="F18">
-        <v>344893815.6705879</v>
+        <v>277588362.40224</v>
       </c>
       <c r="G18">
-        <v>149953832.9002556</v>
+        <v>120690592.3488</v>
       </c>
       <c r="H18">
-        <v>4724</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -878,25 +878,25 @@
         <v>42632</v>
       </c>
       <c r="B19">
-        <v>626729977.9843149</v>
+        <v>536147913.104513</v>
       </c>
       <c r="C19">
-        <v>720739474.6819621</v>
+        <v>616570100.07019</v>
       </c>
       <c r="D19">
-        <v>313364988.9921575</v>
+        <v>268073956.5522565</v>
       </c>
       <c r="E19">
-        <v>313364988.9921575</v>
+        <v>268073956.5522565</v>
       </c>
       <c r="F19">
-        <v>360369737.3409811</v>
+        <v>308285050.035095</v>
       </c>
       <c r="G19">
-        <v>156682494.4960787</v>
+        <v>134036978.2761283</v>
       </c>
       <c r="H19">
-        <v>4734</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -904,25 +904,25 @@
         <v>42723</v>
       </c>
       <c r="B20">
-        <v>621969942.3614601</v>
+        <v>530310840.0845624</v>
       </c>
       <c r="C20">
-        <v>715265433.715679</v>
+        <v>609857466.0972466</v>
       </c>
       <c r="D20">
-        <v>310984971.18073</v>
+        <v>265155420.0422812</v>
       </c>
       <c r="E20">
-        <v>310984971.18073</v>
+        <v>265155420.0422812</v>
       </c>
       <c r="F20">
-        <v>357632716.8578395</v>
+        <v>304928733.0486233</v>
       </c>
       <c r="G20">
-        <v>155492485.590365</v>
+        <v>132577710.0211406</v>
       </c>
       <c r="H20">
-        <v>4749</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -930,25 +930,25 @@
         <v>42814</v>
       </c>
       <c r="B21">
-        <v>672324645.851904</v>
+        <v>587718070.15457</v>
       </c>
       <c r="C21">
-        <v>773173342.7296896</v>
+        <v>675875780.6777555</v>
       </c>
       <c r="D21">
-        <v>336162322.925952</v>
+        <v>293859035.077285</v>
       </c>
       <c r="E21">
-        <v>336162322.925952</v>
+        <v>293859035.077285</v>
       </c>
       <c r="F21">
-        <v>386586671.3648448</v>
+        <v>337937890.3388777</v>
       </c>
       <c r="G21">
-        <v>168081161.462976</v>
+        <v>146929517.5386425</v>
       </c>
       <c r="H21">
-        <v>4749</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -956,25 +956,25 @@
         <v>42905</v>
       </c>
       <c r="B22">
-        <v>684241107.6885253</v>
+        <v>578570957.126312</v>
       </c>
       <c r="C22">
-        <v>786877273.841804</v>
+        <v>665356600.6952587</v>
       </c>
       <c r="D22">
-        <v>342120553.8442627</v>
+        <v>289285478.563156</v>
       </c>
       <c r="E22">
-        <v>342120553.8442627</v>
+        <v>289285478.563156</v>
       </c>
       <c r="F22">
-        <v>393438636.920902</v>
+        <v>332678300.3476294</v>
       </c>
       <c r="G22">
-        <v>171060276.9221313</v>
+        <v>144642739.281578</v>
       </c>
       <c r="H22">
-        <v>4749</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -982,25 +982,25 @@
         <v>42996</v>
       </c>
       <c r="B23">
-        <v>729018233.9786803</v>
+        <v>641647748.5266595</v>
       </c>
       <c r="C23">
-        <v>838370969.0754822</v>
+        <v>737894910.8056583</v>
       </c>
       <c r="D23">
-        <v>364509116.9893401</v>
+        <v>320823874.2633297</v>
       </c>
       <c r="E23">
-        <v>364509116.9893401</v>
+        <v>320823874.2633297</v>
       </c>
       <c r="F23">
-        <v>419185484.5377411</v>
+        <v>368947455.4028292</v>
       </c>
       <c r="G23">
-        <v>182254558.4946701</v>
+        <v>160411937.1316649</v>
       </c>
       <c r="H23">
-        <v>4785</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1008,25 +1008,25 @@
         <v>43087</v>
       </c>
       <c r="B24">
-        <v>762624872.483384</v>
+        <v>654238298.8149519</v>
       </c>
       <c r="C24">
-        <v>877018603.3558916</v>
+        <v>752374043.6371946</v>
       </c>
       <c r="D24">
-        <v>381312436.241692</v>
+        <v>327119149.4074759</v>
       </c>
       <c r="E24">
-        <v>381312436.241692</v>
+        <v>327119149.4074759</v>
       </c>
       <c r="F24">
-        <v>438509301.6779458</v>
+        <v>376187021.8185973</v>
       </c>
       <c r="G24">
-        <v>190656218.120846</v>
+        <v>163559574.703738</v>
       </c>
       <c r="H24">
-        <v>4785</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1034,25 +1034,25 @@
         <v>43178</v>
       </c>
       <c r="B25">
-        <v>780145037.98579</v>
+        <v>675440279.8771321</v>
       </c>
       <c r="C25">
-        <v>897166793.6836585</v>
+        <v>776756321.8587018</v>
       </c>
       <c r="D25">
-        <v>390072518.992895</v>
+        <v>337720139.938566</v>
       </c>
       <c r="E25">
-        <v>390072518.992895</v>
+        <v>337720139.938566</v>
       </c>
       <c r="F25">
-        <v>448583396.8418292</v>
+        <v>388378160.9293509</v>
       </c>
       <c r="G25">
-        <v>195036259.4964475</v>
+        <v>168860069.969283</v>
       </c>
       <c r="H25">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1060,25 +1060,25 @@
         <v>43269</v>
       </c>
       <c r="B26">
-        <v>773998808.49549</v>
+        <v>653888293.4920199</v>
       </c>
       <c r="C26">
-        <v>890098629.7698134</v>
+        <v>751971537.5158228</v>
       </c>
       <c r="D26">
-        <v>386999404.247745</v>
+        <v>326944146.7460099</v>
       </c>
       <c r="E26">
-        <v>386999404.247745</v>
+        <v>326944146.7460099</v>
       </c>
       <c r="F26">
-        <v>445049314.8849067</v>
+        <v>375985768.7579114</v>
       </c>
       <c r="G26">
-        <v>193499702.1238725</v>
+        <v>163472073.373005</v>
       </c>
       <c r="H26">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1086,25 +1086,25 @@
         <v>43367</v>
       </c>
       <c r="B27">
-        <v>795494424.5710349</v>
+        <v>703680615.8242087</v>
       </c>
       <c r="C27">
-        <v>914818588.25669</v>
+        <v>809232708.19784</v>
       </c>
       <c r="D27">
-        <v>397747212.2855175</v>
+        <v>351840307.9121044</v>
       </c>
       <c r="E27">
-        <v>397747212.2855175</v>
+        <v>351840307.9121044</v>
       </c>
       <c r="F27">
-        <v>457409294.128345</v>
+        <v>404616354.09892</v>
       </c>
       <c r="G27">
-        <v>198873606.1427587</v>
+        <v>175920153.9560522</v>
       </c>
       <c r="H27">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1112,25 +1112,25 @@
         <v>43458</v>
       </c>
       <c r="B28">
-        <v>692743280.8740112</v>
+        <v>598467707.2387687</v>
       </c>
       <c r="C28">
-        <v>796654773.0051128</v>
+        <v>688237863.324584</v>
       </c>
       <c r="D28">
-        <v>346371640.4370056</v>
+        <v>299233853.6193843</v>
       </c>
       <c r="E28">
-        <v>346371640.4370056</v>
+        <v>299233853.6193843</v>
       </c>
       <c r="F28">
-        <v>398327386.5025564</v>
+        <v>344118931.662292</v>
       </c>
       <c r="G28">
-        <v>173185820.2185028</v>
+        <v>149616926.8096922</v>
       </c>
       <c r="H28">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1138,25 +1138,25 @@
         <v>43542</v>
       </c>
       <c r="B29">
-        <v>690556187.6576101</v>
+        <v>604652219.7007521</v>
       </c>
       <c r="C29">
-        <v>794139615.8062515</v>
+        <v>695350052.655865</v>
       </c>
       <c r="D29">
-        <v>345278093.828805</v>
+        <v>302326109.8503761</v>
       </c>
       <c r="E29">
-        <v>345278093.828805</v>
+        <v>302326109.8503761</v>
       </c>
       <c r="F29">
-        <v>397069807.9031258</v>
+        <v>347675026.3279325</v>
       </c>
       <c r="G29">
-        <v>172639046.9144025</v>
+        <v>151163054.925188</v>
       </c>
       <c r="H29">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1164,25 +1164,25 @@
         <v>43640</v>
       </c>
       <c r="B30">
-        <v>642310146.87</v>
+        <v>552391806.8592</v>
       </c>
       <c r="C30">
-        <v>738656668.9004999</v>
+        <v>635250577.88808</v>
       </c>
       <c r="D30">
-        <v>321155073.435</v>
+        <v>276195903.4296</v>
       </c>
       <c r="E30">
-        <v>321155073.435</v>
+        <v>276195903.4296</v>
       </c>
       <c r="F30">
-        <v>369328334.45025</v>
+        <v>317625288.94404</v>
       </c>
       <c r="G30">
-        <v>160577536.7175</v>
+        <v>138097951.7148</v>
       </c>
       <c r="H30">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1190,25 +1190,25 @@
         <v>43731</v>
       </c>
       <c r="B31">
-        <v>648884870.424525</v>
+        <v>572867202.7116549</v>
       </c>
       <c r="C31">
-        <v>746217600.9882038</v>
+        <v>658797283.1184031</v>
       </c>
       <c r="D31">
-        <v>324442435.2122625</v>
+        <v>286433601.3558275</v>
       </c>
       <c r="E31">
-        <v>324442435.2122625</v>
+        <v>286433601.3558275</v>
       </c>
       <c r="F31">
-        <v>373108800.4941019</v>
+        <v>329398641.5592015</v>
       </c>
       <c r="G31">
-        <v>162221217.6061313</v>
+        <v>143216800.6779137</v>
       </c>
       <c r="H31">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1216,25 +1216,25 @@
         <v>43822</v>
       </c>
       <c r="B32">
-        <v>696123650.6757586</v>
+        <v>601025784.1477799</v>
       </c>
       <c r="C32">
-        <v>800542198.2771224</v>
+        <v>691179651.7699469</v>
       </c>
       <c r="D32">
-        <v>348061825.3378793</v>
+        <v>300512892.07389</v>
       </c>
       <c r="E32">
-        <v>348061825.3378793</v>
+        <v>300512892.07389</v>
       </c>
       <c r="F32">
-        <v>400271099.1385612</v>
+        <v>345589825.8849735</v>
       </c>
       <c r="G32">
-        <v>174030912.6689397</v>
+        <v>150256446.036945</v>
       </c>
       <c r="H32">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1242,25 +1242,25 @@
         <v>43913</v>
       </c>
       <c r="B33">
-        <v>605380443.4</v>
+        <v>529388792.4</v>
       </c>
       <c r="C33">
-        <v>696187509.91</v>
+        <v>608797111.2599999</v>
       </c>
       <c r="D33">
-        <v>302690221.7</v>
+        <v>264694396.2</v>
       </c>
       <c r="E33">
-        <v>302690221.7</v>
+        <v>264694396.2</v>
       </c>
       <c r="F33">
-        <v>348093754.955</v>
+        <v>304398555.6299999</v>
       </c>
       <c r="G33">
-        <v>151345110.85</v>
+        <v>132347198.1</v>
       </c>
       <c r="H33">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1268,25 +1268,25 @@
         <v>44004</v>
       </c>
       <c r="B34">
-        <v>561780715.99</v>
+        <v>482176612.4554613</v>
       </c>
       <c r="C34">
-        <v>646047823.3885</v>
+        <v>554503104.3237804</v>
       </c>
       <c r="D34">
-        <v>280890357.995</v>
+        <v>241088306.2277306</v>
       </c>
       <c r="E34">
-        <v>280890357.995</v>
+        <v>241088306.2277306</v>
       </c>
       <c r="F34">
-        <v>323023911.69425</v>
+        <v>277251552.1618902</v>
       </c>
       <c r="G34">
-        <v>140445178.9975</v>
+        <v>120544153.1138653</v>
       </c>
       <c r="H34">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1294,25 +1294,25 @@
         <v>44095</v>
       </c>
       <c r="B35">
-        <v>648490702.1775137</v>
+        <v>572308101.8631001</v>
       </c>
       <c r="C35">
-        <v>745764307.5041407</v>
+        <v>658154317.142565</v>
       </c>
       <c r="D35">
-        <v>324245351.0887569</v>
+        <v>286154050.93155</v>
       </c>
       <c r="E35">
-        <v>324245351.0887569</v>
+        <v>286154050.93155</v>
       </c>
       <c r="F35">
-        <v>372882153.7520704</v>
+        <v>329077158.5712825</v>
       </c>
       <c r="G35">
-        <v>162122675.5443784</v>
+        <v>143077025.465775</v>
       </c>
       <c r="H35">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1320,25 +1320,25 @@
         <v>44186</v>
       </c>
       <c r="B36">
-        <v>711715304.96</v>
+        <v>604216700.4300001</v>
       </c>
       <c r="C36">
-        <v>818472600.704</v>
+        <v>694849205.4945</v>
       </c>
       <c r="D36">
-        <v>355857652.48</v>
+        <v>302108350.215</v>
       </c>
       <c r="E36">
-        <v>355857652.48</v>
+        <v>302108350.215</v>
       </c>
       <c r="F36">
-        <v>409236300.352</v>
+        <v>347424602.74725</v>
       </c>
       <c r="G36">
-        <v>177928826.24</v>
+        <v>151054175.1075</v>
       </c>
       <c r="H36">
-        <v>4786</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1346,25 +1346,25 @@
         <v>44277</v>
       </c>
       <c r="B37">
-        <v>959064107.8</v>
+        <v>781062405.8652689</v>
       </c>
       <c r="C37">
-        <v>1102923723.97</v>
+        <v>898221766.7450593</v>
       </c>
       <c r="D37">
-        <v>479532053.9</v>
+        <v>390531202.9326345</v>
       </c>
       <c r="E37">
-        <v>479532053.9</v>
+        <v>390531202.9326345</v>
       </c>
       <c r="F37">
-        <v>551461861.9849999</v>
+        <v>449110883.3725296</v>
       </c>
       <c r="G37">
-        <v>239766026.95</v>
+        <v>195265601.4663172</v>
       </c>
       <c r="H37">
-        <v>4511</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1372,25 +1372,25 @@
         <v>44368</v>
       </c>
       <c r="B38">
-        <v>1005507360</v>
+        <v>777798807.7147901</v>
       </c>
       <c r="C38">
-        <v>1156333464</v>
+        <v>894468628.8720086</v>
       </c>
       <c r="D38">
-        <v>502753680</v>
+        <v>388899403.8573951</v>
       </c>
       <c r="E38">
-        <v>502753680</v>
+        <v>388899403.8573951</v>
       </c>
       <c r="F38">
-        <v>578166732</v>
+        <v>447234314.4360043</v>
       </c>
       <c r="G38">
-        <v>251376840</v>
+        <v>194449701.9286975</v>
       </c>
       <c r="H38">
-        <v>4516</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1398,25 +1398,25 @@
         <v>44459</v>
       </c>
       <c r="B39">
-        <v>974152172.7462</v>
+        <v>846758423.04</v>
       </c>
       <c r="C39">
-        <v>1120274998.65813</v>
+        <v>973772186.4959999</v>
       </c>
       <c r="D39">
-        <v>487076086.3731</v>
+        <v>423379211.52</v>
       </c>
       <c r="E39">
-        <v>487076086.3731</v>
+        <v>423379211.52</v>
       </c>
       <c r="F39">
-        <v>560137499.329065</v>
+        <v>486886093.248</v>
       </c>
       <c r="G39">
-        <v>243538043.18655</v>
+        <v>211689605.76</v>
       </c>
       <c r="H39">
-        <v>4516</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1424,25 +1424,25 @@
         <v>44550</v>
       </c>
       <c r="B40">
-        <v>913726931.85</v>
+        <v>726220236.8169188</v>
       </c>
       <c r="C40">
-        <v>1050785971.6275</v>
+        <v>835153272.3394566</v>
       </c>
       <c r="D40">
-        <v>456863465.925</v>
+        <v>363110118.4084594</v>
       </c>
       <c r="E40">
-        <v>456863465.925</v>
+        <v>363110118.4084594</v>
       </c>
       <c r="F40">
-        <v>525392985.81375</v>
+        <v>417576636.1697283</v>
       </c>
       <c r="G40">
-        <v>228431732.9625</v>
+        <v>181555059.2042297</v>
       </c>
       <c r="H40">
-        <v>4516</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1450,25 +1450,25 @@
         <v>44641</v>
       </c>
       <c r="B41">
-        <v>887916863.3638779</v>
+        <v>726713038.4391721</v>
       </c>
       <c r="C41">
-        <v>1021104392.868459</v>
+        <v>835719994.205048</v>
       </c>
       <c r="D41">
-        <v>443958431.6819389</v>
+        <v>363356519.2195861</v>
       </c>
       <c r="E41">
-        <v>443958431.6819389</v>
+        <v>363356519.2195861</v>
       </c>
       <c r="F41">
-        <v>510552196.4342297</v>
+        <v>417859997.102524</v>
       </c>
       <c r="G41">
-        <v>221979215.8409695</v>
+        <v>181678259.609793</v>
       </c>
       <c r="H41">
-        <v>4516</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1476,25 +1476,25 @@
         <v>44732</v>
       </c>
       <c r="B42">
-        <v>817861688.8970883</v>
+        <v>614136708.1375554</v>
       </c>
       <c r="C42">
-        <v>940540942.2316514</v>
+        <v>706257214.3581886</v>
       </c>
       <c r="D42">
-        <v>408930844.4485441</v>
+        <v>307068354.0687777</v>
       </c>
       <c r="E42">
-        <v>408930844.4485441</v>
+        <v>307068354.0687777</v>
       </c>
       <c r="F42">
-        <v>470270471.1158257</v>
+        <v>353128607.1790943</v>
       </c>
       <c r="G42">
-        <v>204465422.2242721</v>
+        <v>153534177.0343888</v>
       </c>
       <c r="H42">
-        <v>4561</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1502,25 +1502,25 @@
         <v>44823</v>
       </c>
       <c r="B43">
-        <v>770892539.16</v>
+        <v>579267094</v>
       </c>
       <c r="C43">
-        <v>886526420.0339999</v>
+        <v>666157158.0999999</v>
       </c>
       <c r="D43">
-        <v>385446269.58</v>
+        <v>289633547</v>
       </c>
       <c r="E43">
-        <v>385446269.58</v>
+        <v>289633547</v>
       </c>
       <c r="F43">
-        <v>443263210.017</v>
+        <v>333078579.05</v>
       </c>
       <c r="G43">
-        <v>192723134.79</v>
+        <v>144816773.5</v>
       </c>
       <c r="H43">
-        <v>4583</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1528,25 +1528,25 @@
         <v>44914</v>
       </c>
       <c r="B44">
-        <v>734848939.5003051</v>
+        <v>536862246.5525</v>
       </c>
       <c r="C44">
-        <v>845076280.4253508</v>
+        <v>617391583.535375</v>
       </c>
       <c r="D44">
-        <v>367424469.7501525</v>
+        <v>268431123.27625</v>
       </c>
       <c r="E44">
-        <v>367424469.7501525</v>
+        <v>268431123.27625</v>
       </c>
       <c r="F44">
-        <v>422538140.2126754</v>
+        <v>308695791.7676875</v>
       </c>
       <c r="G44">
-        <v>183712234.8750763</v>
+        <v>134215561.638125</v>
       </c>
       <c r="H44">
-        <v>4583</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1554,25 +1554,25 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>758692693.8657277</v>
+        <v>556054894.5915189</v>
       </c>
       <c r="C45">
-        <v>872496597.9455868</v>
+        <v>639463128.7802466</v>
       </c>
       <c r="D45">
-        <v>379346346.9328638</v>
+        <v>278027447.2957594</v>
       </c>
       <c r="E45">
-        <v>379346346.9328638</v>
+        <v>278027447.2957594</v>
       </c>
       <c r="F45">
-        <v>436248298.9727934</v>
+        <v>319731564.3901233</v>
       </c>
       <c r="G45">
-        <v>189673173.4664319</v>
+        <v>139013723.6478797</v>
       </c>
       <c r="H45">
-        <v>4583</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1580,25 +1580,25 @@
         <v>45096</v>
       </c>
       <c r="B46">
-        <v>692704783.05336</v>
+        <v>493260465.7865992</v>
       </c>
       <c r="C46">
-        <v>796610500.5113639</v>
+        <v>567249535.6545891</v>
       </c>
       <c r="D46">
-        <v>346352391.52668</v>
+        <v>246630232.8932996</v>
       </c>
       <c r="E46">
-        <v>346352391.52668</v>
+        <v>246630232.8932996</v>
       </c>
       <c r="F46">
-        <v>398305250.2556819</v>
+        <v>283624767.8272945</v>
       </c>
       <c r="G46">
-        <v>173176195.76334</v>
+        <v>123315116.4466498</v>
       </c>
       <c r="H46">
-        <v>4583</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1606,25 +1606,25 @@
         <v>45187</v>
       </c>
       <c r="B47">
-        <v>704084529.1639808</v>
+        <v>517590183.0168638</v>
       </c>
       <c r="C47">
-        <v>809697208.5385779</v>
+        <v>595228710.4693934</v>
       </c>
       <c r="D47">
-        <v>352042264.5819904</v>
+        <v>258795091.5084319</v>
       </c>
       <c r="E47">
-        <v>352042264.5819904</v>
+        <v>258795091.5084319</v>
       </c>
       <c r="F47">
-        <v>404848604.269289</v>
+        <v>297614355.2346967</v>
       </c>
       <c r="G47">
-        <v>176021132.2909952</v>
+        <v>129397545.754216</v>
       </c>
       <c r="H47">
-        <v>4583</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1632,25 +1632,25 @@
         <v>45278</v>
       </c>
       <c r="B48">
-        <v>673430379.88</v>
+        <v>478932793.1930425</v>
       </c>
       <c r="C48">
-        <v>774444936.862</v>
+        <v>550772712.1719989</v>
       </c>
       <c r="D48">
-        <v>336715189.94</v>
+        <v>239466396.5965213</v>
       </c>
       <c r="E48">
-        <v>336715189.94</v>
+        <v>239466396.5965213</v>
       </c>
       <c r="F48">
-        <v>387222468.431</v>
+        <v>275386356.0859994</v>
       </c>
       <c r="G48">
-        <v>168357594.97</v>
+        <v>119733198.2982606</v>
       </c>
       <c r="H48">
-        <v>4583</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1658,25 +1658,25 @@
         <v>45369</v>
       </c>
       <c r="B49">
-        <v>715508066.3849714</v>
+        <v>558043681.4503371</v>
       </c>
       <c r="C49">
-        <v>822834276.3427171</v>
+        <v>641750233.6678876</v>
       </c>
       <c r="D49">
-        <v>357754033.1924857</v>
+        <v>279021840.7251685</v>
       </c>
       <c r="E49">
-        <v>357754033.1924857</v>
+        <v>279021840.7251685</v>
       </c>
       <c r="F49">
-        <v>411417138.1713585</v>
+        <v>320875116.8339438</v>
       </c>
       <c r="G49">
-        <v>178877016.5962428</v>
+        <v>139510920.3625843</v>
       </c>
       <c r="H49">
-        <v>4583</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1684,25 +1684,25 @@
         <v>45467</v>
       </c>
       <c r="B50">
-        <v>704292876.99</v>
+        <v>542292196.9025506</v>
       </c>
       <c r="C50">
-        <v>809936808.5385</v>
+        <v>623636026.4379331</v>
       </c>
       <c r="D50">
-        <v>352146438.495</v>
+        <v>271146098.4512753</v>
       </c>
       <c r="E50">
-        <v>352146438.495</v>
+        <v>271146098.4512753</v>
       </c>
       <c r="F50">
-        <v>404968404.26925</v>
+        <v>311818013.2189665</v>
       </c>
       <c r="G50">
-        <v>176073219.2475</v>
+        <v>135573049.2256376</v>
       </c>
       <c r="H50">
-        <v>4583</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1710,25 +1710,25 @@
         <v>45558</v>
       </c>
       <c r="B51">
-        <v>864790729.0821099</v>
+        <v>601736328.5920403</v>
       </c>
       <c r="C51">
-        <v>994509338.4444263</v>
+        <v>691996777.8808463</v>
       </c>
       <c r="D51">
-        <v>432395364.541055</v>
+        <v>300868164.2960202</v>
       </c>
       <c r="E51">
-        <v>432395364.541055</v>
+        <v>300868164.2960202</v>
       </c>
       <c r="F51">
-        <v>497254669.2222131</v>
+        <v>345998388.9404231</v>
       </c>
       <c r="G51">
-        <v>216197682.2705275</v>
+        <v>150434082.1480101</v>
       </c>
       <c r="H51">
-        <v>3842</v>
+        <v>4379</v>
       </c>
     </row>
   </sheetData>

--- a/Output/TopPercentage_Report_Rebalancing_BR.xlsx
+++ b/Output/TopPercentage_Report_Rebalancing_BR.xlsx
@@ -436,25 +436,25 @@
         <v>41078</v>
       </c>
       <c r="B2">
-        <v>330000000</v>
+        <v>3592000000</v>
       </c>
       <c r="C2">
-        <v>379500000</v>
+        <v>4130800000</v>
       </c>
       <c r="D2">
-        <v>165000000</v>
+        <v>1796000000</v>
       </c>
       <c r="E2">
-        <v>165000000</v>
+        <v>1796000000</v>
       </c>
       <c r="F2">
-        <v>189750000</v>
+        <v>2065400000</v>
       </c>
       <c r="G2">
-        <v>82500000</v>
+        <v>898000000</v>
       </c>
       <c r="H2">
-        <v>4690</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -462,25 +462,25 @@
         <v>41176</v>
       </c>
       <c r="B3">
-        <v>360092536.0769</v>
+        <v>3890771058.509</v>
       </c>
       <c r="C3">
-        <v>414106416.488435</v>
+        <v>4474386717.28535</v>
       </c>
       <c r="D3">
-        <v>180046268.03845</v>
+        <v>1945385529.2545</v>
       </c>
       <c r="E3">
-        <v>180046268.03845</v>
+        <v>1945385529.2545</v>
       </c>
       <c r="F3">
-        <v>207053208.2442175</v>
+        <v>2237193358.642675</v>
       </c>
       <c r="G3">
-        <v>90023134.019225</v>
+        <v>972692764.62725</v>
       </c>
       <c r="H3">
-        <v>5001</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -488,25 +488,25 @@
         <v>41267</v>
       </c>
       <c r="B4">
-        <v>356818259.9018525</v>
+        <v>4095602668.6</v>
       </c>
       <c r="C4">
-        <v>410340998.8871304</v>
+        <v>4709943068.889999</v>
       </c>
       <c r="D4">
-        <v>178409129.9509263</v>
+        <v>2047801334.3</v>
       </c>
       <c r="E4">
-        <v>178409129.9509263</v>
+        <v>2047801334.3</v>
       </c>
       <c r="F4">
-        <v>205170499.4435652</v>
+        <v>2354971534.445</v>
       </c>
       <c r="G4">
-        <v>89204564.97546314</v>
+        <v>1023900667.15</v>
       </c>
       <c r="H4">
-        <v>5001</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -514,25 +514,25 @@
         <v>41351</v>
       </c>
       <c r="B5">
-        <v>395868400.26804</v>
+        <v>4325642280.417162</v>
       </c>
       <c r="C5">
-        <v>455248660.308246</v>
+        <v>4974488622.479735</v>
       </c>
       <c r="D5">
-        <v>197934200.13402</v>
+        <v>2162821140.208581</v>
       </c>
       <c r="E5">
-        <v>197934200.13402</v>
+        <v>2162821140.208581</v>
       </c>
       <c r="F5">
-        <v>227624330.154123</v>
+        <v>2487244311.239868</v>
       </c>
       <c r="G5">
-        <v>98967100.06701</v>
+        <v>1081410570.10429</v>
       </c>
       <c r="H5">
-        <v>5001</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -540,25 +540,25 @@
         <v>41449</v>
       </c>
       <c r="B6">
-        <v>389117589.7523462</v>
+        <v>4628512058.350773</v>
       </c>
       <c r="C6">
-        <v>447485228.2151981</v>
+        <v>5322788867.103389</v>
       </c>
       <c r="D6">
-        <v>194558794.8761731</v>
+        <v>2314256029.175386</v>
       </c>
       <c r="E6">
-        <v>194558794.8761731</v>
+        <v>2314256029.175386</v>
       </c>
       <c r="F6">
-        <v>223742614.107599</v>
+        <v>2661394433.551694</v>
       </c>
       <c r="G6">
-        <v>97279397.43808655</v>
+        <v>1157128014.587693</v>
       </c>
       <c r="H6">
-        <v>5001</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -566,25 +566,25 @@
         <v>41540</v>
       </c>
       <c r="B7">
-        <v>411400138.8087488</v>
+        <v>4610453253.75</v>
       </c>
       <c r="C7">
-        <v>473110159.6300611</v>
+        <v>5302021241.8125</v>
       </c>
       <c r="D7">
-        <v>205700069.4043744</v>
+        <v>2305226626.875</v>
       </c>
       <c r="E7">
-        <v>205700069.4043744</v>
+        <v>2305226626.875</v>
       </c>
       <c r="F7">
-        <v>236555079.8150306</v>
+        <v>2651010620.90625</v>
       </c>
       <c r="G7">
-        <v>102850034.7021872</v>
+        <v>1152613313.4375</v>
       </c>
       <c r="H7">
-        <v>5001</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -592,25 +592,25 @@
         <v>41631</v>
       </c>
       <c r="B8">
-        <v>425173821.671106</v>
+        <v>5154126241.182968</v>
       </c>
       <c r="C8">
-        <v>488949894.9217718</v>
+        <v>5927245177.360413</v>
       </c>
       <c r="D8">
-        <v>212586910.835553</v>
+        <v>2577063120.591484</v>
       </c>
       <c r="E8">
-        <v>212586910.835553</v>
+        <v>2577063120.591484</v>
       </c>
       <c r="F8">
-        <v>244474947.4608859</v>
+        <v>2963622588.680206</v>
       </c>
       <c r="G8">
-        <v>106293455.4177765</v>
+        <v>1288531560.295742</v>
       </c>
       <c r="H8">
-        <v>5001</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -618,25 +618,25 @@
         <v>41722</v>
       </c>
       <c r="B9">
-        <v>467951123.188209</v>
+        <v>5220362506.809403</v>
       </c>
       <c r="C9">
-        <v>538143791.6664402</v>
+        <v>6003416882.830813</v>
       </c>
       <c r="D9">
-        <v>233975561.5941045</v>
+        <v>2610181253.404702</v>
       </c>
       <c r="E9">
-        <v>233975561.5941045</v>
+        <v>2610181253.404702</v>
       </c>
       <c r="F9">
-        <v>269071895.8332201</v>
+        <v>3001708441.415407</v>
       </c>
       <c r="G9">
-        <v>116987780.7970522</v>
+        <v>1305090626.702351</v>
       </c>
       <c r="H9">
-        <v>5001</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -644,25 +644,25 @@
         <v>41813</v>
       </c>
       <c r="B10">
-        <v>455882784.1209238</v>
+        <v>5276952330.42</v>
       </c>
       <c r="C10">
-        <v>524265201.7390623</v>
+        <v>6068495179.983</v>
       </c>
       <c r="D10">
-        <v>227941392.0604619</v>
+        <v>2638476165.21</v>
       </c>
       <c r="E10">
-        <v>227941392.0604619</v>
+        <v>2638476165.21</v>
       </c>
       <c r="F10">
-        <v>262132600.8695312</v>
+        <v>3034247589.9915</v>
       </c>
       <c r="G10">
-        <v>113970696.0302309</v>
+        <v>1319238082.605</v>
       </c>
       <c r="H10">
-        <v>5001</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -670,25 +670,25 @@
         <v>41904</v>
       </c>
       <c r="B11">
-        <v>541242364.06457</v>
+        <v>5380296439.608351</v>
       </c>
       <c r="C11">
-        <v>622428718.6742554</v>
+        <v>6187340905.549603</v>
       </c>
       <c r="D11">
-        <v>270621182.032285</v>
+        <v>2690148219.804175</v>
       </c>
       <c r="E11">
-        <v>270621182.032285</v>
+        <v>2690148219.804175</v>
       </c>
       <c r="F11">
-        <v>311214359.3371277</v>
+        <v>3093670452.774801</v>
       </c>
       <c r="G11">
-        <v>135310591.0161425</v>
+        <v>1345074109.902088</v>
       </c>
       <c r="H11">
-        <v>5001</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -696,25 +696,25 @@
         <v>41995</v>
       </c>
       <c r="B12">
-        <v>470906313.5062275</v>
+        <v>5476633320</v>
       </c>
       <c r="C12">
-        <v>541542260.5321616</v>
+        <v>6298128317.999999</v>
       </c>
       <c r="D12">
-        <v>235453156.7531137</v>
+        <v>2738316660</v>
       </c>
       <c r="E12">
-        <v>235453156.7531137</v>
+        <v>2738316660</v>
       </c>
       <c r="F12">
-        <v>270771130.2660808</v>
+        <v>3149064159</v>
       </c>
       <c r="G12">
-        <v>117726578.3765569</v>
+        <v>1369158330</v>
       </c>
       <c r="H12">
-        <v>5001</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -722,25 +722,25 @@
         <v>42086</v>
       </c>
       <c r="B13">
-        <v>510409840.9399418</v>
+        <v>5434069656.432</v>
       </c>
       <c r="C13">
-        <v>586971317.080933</v>
+        <v>6249180104.8968</v>
       </c>
       <c r="D13">
-        <v>255204920.4699709</v>
+        <v>2717034828.216</v>
       </c>
       <c r="E13">
-        <v>255204920.4699709</v>
+        <v>2717034828.216</v>
       </c>
       <c r="F13">
-        <v>293485658.5404665</v>
+        <v>3124590052.4484</v>
       </c>
       <c r="G13">
-        <v>127602460.2349854</v>
+        <v>1358517414.108</v>
       </c>
       <c r="H13">
-        <v>5001</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -748,25 +748,25 @@
         <v>42177</v>
       </c>
       <c r="B14">
-        <v>513685645.5062701</v>
+        <v>5510353117.217601</v>
       </c>
       <c r="C14">
-        <v>590738492.3322105</v>
+        <v>6336906084.800241</v>
       </c>
       <c r="D14">
-        <v>256842822.753135</v>
+        <v>2755176558.6088</v>
       </c>
       <c r="E14">
-        <v>256842822.753135</v>
+        <v>2755176558.6088</v>
       </c>
       <c r="F14">
-        <v>295369246.1661053</v>
+        <v>3168453042.40012</v>
       </c>
       <c r="G14">
-        <v>128421411.3765675</v>
+        <v>1377588279.3044</v>
       </c>
       <c r="H14">
-        <v>5001</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -774,25 +774,25 @@
         <v>42268</v>
       </c>
       <c r="B15">
-        <v>507869481.8877121</v>
+        <v>4974714172.83654</v>
       </c>
       <c r="C15">
-        <v>584049904.1708689</v>
+        <v>5720921298.762021</v>
       </c>
       <c r="D15">
-        <v>253934740.9438561</v>
+        <v>2487357086.41827</v>
       </c>
       <c r="E15">
-        <v>253934740.9438561</v>
+        <v>2487357086.41827</v>
       </c>
       <c r="F15">
-        <v>292024952.0854344</v>
+        <v>2860460649.381011</v>
       </c>
       <c r="G15">
-        <v>126967370.471928</v>
+        <v>1243678543.209135</v>
       </c>
       <c r="H15">
-        <v>5001</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -800,25 +800,25 @@
         <v>42359</v>
       </c>
       <c r="B16">
-        <v>495752055.3393528</v>
+        <v>5213808777.091681</v>
       </c>
       <c r="C16">
-        <v>570114863.6402557</v>
+        <v>5995880093.655432</v>
       </c>
       <c r="D16">
-        <v>247876027.6696764</v>
+        <v>2606904388.54584</v>
       </c>
       <c r="E16">
-        <v>247876027.6696764</v>
+        <v>2606904388.54584</v>
       </c>
       <c r="F16">
-        <v>285057431.8201278</v>
+        <v>2997940046.827716</v>
       </c>
       <c r="G16">
-        <v>123938013.8348382</v>
+        <v>1303452194.27292</v>
       </c>
       <c r="H16">
-        <v>5001</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -826,25 +826,25 @@
         <v>42450</v>
       </c>
       <c r="B17">
-        <v>453153079.9198</v>
+        <v>4834027350</v>
       </c>
       <c r="C17">
-        <v>521126041.9077699</v>
+        <v>5559131452.5</v>
       </c>
       <c r="D17">
-        <v>226576539.9599</v>
+        <v>2417013675</v>
       </c>
       <c r="E17">
-        <v>226576539.9599</v>
+        <v>2417013675</v>
       </c>
       <c r="F17">
-        <v>260563020.953885</v>
+        <v>2779565726.25</v>
       </c>
       <c r="G17">
-        <v>113288269.97995</v>
+        <v>1208506837.5</v>
       </c>
       <c r="H17">
-        <v>5001</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -852,25 +852,25 @@
         <v>42541</v>
       </c>
       <c r="B18">
-        <v>482762369.3952001</v>
+        <v>5183722901.59</v>
       </c>
       <c r="C18">
-        <v>555176724.8044801</v>
+        <v>5961281336.8285</v>
       </c>
       <c r="D18">
-        <v>241381184.6976</v>
+        <v>2591861450.795</v>
       </c>
       <c r="E18">
-        <v>241381184.6976</v>
+        <v>2591861450.795</v>
       </c>
       <c r="F18">
-        <v>277588362.40224</v>
+        <v>2980640668.41425</v>
       </c>
       <c r="G18">
-        <v>120690592.3488</v>
+        <v>1295930725.3975</v>
       </c>
       <c r="H18">
-        <v>5001</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -878,25 +878,25 @@
         <v>42632</v>
       </c>
       <c r="B19">
-        <v>536147913.104513</v>
+        <v>5197334466.24</v>
       </c>
       <c r="C19">
-        <v>616570100.07019</v>
+        <v>5976934636.176</v>
       </c>
       <c r="D19">
-        <v>268073956.5522565</v>
+        <v>2598667233.12</v>
       </c>
       <c r="E19">
-        <v>268073956.5522565</v>
+        <v>2598667233.12</v>
       </c>
       <c r="F19">
-        <v>308285050.035095</v>
+        <v>2988467318.088</v>
       </c>
       <c r="G19">
-        <v>134036978.2761283</v>
+        <v>1299333616.56</v>
       </c>
       <c r="H19">
-        <v>5001</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -904,25 +904,25 @@
         <v>42723</v>
       </c>
       <c r="B20">
-        <v>530310840.0845624</v>
+        <v>5125837926.293759</v>
       </c>
       <c r="C20">
-        <v>609857466.0972466</v>
+        <v>5894713615.237823</v>
       </c>
       <c r="D20">
-        <v>265155420.0422812</v>
+        <v>2562918963.14688</v>
       </c>
       <c r="E20">
-        <v>265155420.0422812</v>
+        <v>2562918963.14688</v>
       </c>
       <c r="F20">
-        <v>304928733.0486233</v>
+        <v>2947356807.618911</v>
       </c>
       <c r="G20">
-        <v>132577710.0211406</v>
+        <v>1281459481.57344</v>
       </c>
       <c r="H20">
-        <v>5001</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -930,25 +930,25 @@
         <v>42814</v>
       </c>
       <c r="B21">
-        <v>587718070.15457</v>
+        <v>5425925412.88</v>
       </c>
       <c r="C21">
-        <v>675875780.6777555</v>
+        <v>6239814224.811999</v>
       </c>
       <c r="D21">
-        <v>293859035.077285</v>
+        <v>2712962706.44</v>
       </c>
       <c r="E21">
-        <v>293859035.077285</v>
+        <v>2712962706.44</v>
       </c>
       <c r="F21">
-        <v>337937890.3388777</v>
+        <v>3119907112.406</v>
       </c>
       <c r="G21">
-        <v>146929517.5386425</v>
+        <v>1356481353.22</v>
       </c>
       <c r="H21">
-        <v>5001</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -956,25 +956,25 @@
         <v>42905</v>
       </c>
       <c r="B22">
-        <v>578570957.126312</v>
+        <v>5814740109.92</v>
       </c>
       <c r="C22">
-        <v>665356600.6952587</v>
+        <v>6686951126.408</v>
       </c>
       <c r="D22">
-        <v>289285478.563156</v>
+        <v>2907370054.96</v>
       </c>
       <c r="E22">
-        <v>289285478.563156</v>
+        <v>2907370054.96</v>
       </c>
       <c r="F22">
-        <v>332678300.3476294</v>
+        <v>3343475563.204</v>
       </c>
       <c r="G22">
-        <v>144642739.281578</v>
+        <v>1453685027.48</v>
       </c>
       <c r="H22">
-        <v>5001</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -982,25 +982,25 @@
         <v>42996</v>
       </c>
       <c r="B23">
-        <v>641647748.5266595</v>
+        <v>5813735074.6</v>
       </c>
       <c r="C23">
-        <v>737894910.8056583</v>
+        <v>6685795335.79</v>
       </c>
       <c r="D23">
-        <v>320823874.2633297</v>
+        <v>2906867537.3</v>
       </c>
       <c r="E23">
-        <v>320823874.2633297</v>
+        <v>2906867537.3</v>
       </c>
       <c r="F23">
-        <v>368947455.4028292</v>
+        <v>3342897667.895</v>
       </c>
       <c r="G23">
-        <v>160411937.1316649</v>
+        <v>1453433768.65</v>
       </c>
       <c r="H23">
-        <v>5040</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1008,25 +1008,25 @@
         <v>43087</v>
       </c>
       <c r="B24">
-        <v>654238298.8149519</v>
+        <v>6262400347</v>
       </c>
       <c r="C24">
-        <v>752374043.6371946</v>
+        <v>7201760399.049999</v>
       </c>
       <c r="D24">
-        <v>327119149.4074759</v>
+        <v>3131200173.5</v>
       </c>
       <c r="E24">
-        <v>327119149.4074759</v>
+        <v>3131200173.5</v>
       </c>
       <c r="F24">
-        <v>376187021.8185973</v>
+        <v>3600880199.525</v>
       </c>
       <c r="G24">
-        <v>163559574.703738</v>
+        <v>1565600086.75</v>
       </c>
       <c r="H24">
-        <v>5040</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1034,25 +1034,25 @@
         <v>43178</v>
       </c>
       <c r="B25">
-        <v>675440279.8771321</v>
+        <v>6367519466.88</v>
       </c>
       <c r="C25">
-        <v>776756321.8587018</v>
+        <v>7322647386.912</v>
       </c>
       <c r="D25">
-        <v>337720139.938566</v>
+        <v>3183759733.44</v>
       </c>
       <c r="E25">
-        <v>337720139.938566</v>
+        <v>3183759733.44</v>
       </c>
       <c r="F25">
-        <v>388378160.9293509</v>
+        <v>3661323693.456</v>
       </c>
       <c r="G25">
-        <v>168860069.969283</v>
+        <v>1591879866.72</v>
       </c>
       <c r="H25">
-        <v>5040</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1060,25 +1060,25 @@
         <v>43269</v>
       </c>
       <c r="B26">
-        <v>653888293.4920199</v>
+        <v>6176997181.49146</v>
       </c>
       <c r="C26">
-        <v>751971537.5158228</v>
+        <v>7103546758.715178</v>
       </c>
       <c r="D26">
-        <v>326944146.7460099</v>
+        <v>3088498590.74573</v>
       </c>
       <c r="E26">
-        <v>326944146.7460099</v>
+        <v>3088498590.74573</v>
       </c>
       <c r="F26">
-        <v>375985768.7579114</v>
+        <v>3551773379.357589</v>
       </c>
       <c r="G26">
-        <v>163472073.373005</v>
+        <v>1544249295.372865</v>
       </c>
       <c r="H26">
-        <v>5040</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1086,25 +1086,25 @@
         <v>43367</v>
       </c>
       <c r="B27">
-        <v>703680615.8242087</v>
+        <v>6387789679.918047</v>
       </c>
       <c r="C27">
-        <v>809232708.19784</v>
+        <v>7345958131.905753</v>
       </c>
       <c r="D27">
-        <v>351840307.9121044</v>
+        <v>3193894839.959023</v>
       </c>
       <c r="E27">
-        <v>351840307.9121044</v>
+        <v>3193894839.959023</v>
       </c>
       <c r="F27">
-        <v>404616354.09892</v>
+        <v>3672979065.952877</v>
       </c>
       <c r="G27">
-        <v>175920153.9560522</v>
+        <v>1596947419.979512</v>
       </c>
       <c r="H27">
-        <v>5040</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1112,25 +1112,25 @@
         <v>43458</v>
       </c>
       <c r="B28">
-        <v>598467707.2387687</v>
+        <v>6110499463.639999</v>
       </c>
       <c r="C28">
-        <v>688237863.324584</v>
+        <v>7027074383.185999</v>
       </c>
       <c r="D28">
-        <v>299233853.6193843</v>
+        <v>3055249731.82</v>
       </c>
       <c r="E28">
-        <v>299233853.6193843</v>
+        <v>3055249731.82</v>
       </c>
       <c r="F28">
-        <v>344118931.662292</v>
+        <v>3513537191.592999</v>
       </c>
       <c r="G28">
-        <v>149616926.8096922</v>
+        <v>1527624865.91</v>
       </c>
       <c r="H28">
-        <v>5040</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1138,25 +1138,25 @@
         <v>43542</v>
       </c>
       <c r="B29">
-        <v>604652219.7007521</v>
+        <v>6325893273.72</v>
       </c>
       <c r="C29">
-        <v>695350052.655865</v>
+        <v>7274777264.778</v>
       </c>
       <c r="D29">
-        <v>302326109.8503761</v>
+        <v>3162946636.86</v>
       </c>
       <c r="E29">
-        <v>302326109.8503761</v>
+        <v>3162946636.86</v>
       </c>
       <c r="F29">
-        <v>347675026.3279325</v>
+        <v>3637388632.389</v>
       </c>
       <c r="G29">
-        <v>151163054.925188</v>
+        <v>1581473318.43</v>
       </c>
       <c r="H29">
-        <v>5040</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1164,25 +1164,25 @@
         <v>43640</v>
       </c>
       <c r="B30">
-        <v>552391806.8592</v>
+        <v>6232635222</v>
       </c>
       <c r="C30">
-        <v>635250577.88808</v>
+        <v>7167530505.299999</v>
       </c>
       <c r="D30">
-        <v>276195903.4296</v>
+        <v>3116317611</v>
       </c>
       <c r="E30">
-        <v>276195903.4296</v>
+        <v>3116317611</v>
       </c>
       <c r="F30">
-        <v>317625288.94404</v>
+        <v>3583765252.65</v>
       </c>
       <c r="G30">
-        <v>138097951.7148</v>
+        <v>1558158805.5</v>
       </c>
       <c r="H30">
-        <v>5040</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1190,25 +1190,25 @@
         <v>43731</v>
       </c>
       <c r="B31">
-        <v>572867202.7116549</v>
+        <v>6507844835.360001</v>
       </c>
       <c r="C31">
-        <v>658797283.1184031</v>
+        <v>7484021560.664001</v>
       </c>
       <c r="D31">
-        <v>286433601.3558275</v>
+        <v>3253922417.68</v>
       </c>
       <c r="E31">
-        <v>286433601.3558275</v>
+        <v>3253922417.68</v>
       </c>
       <c r="F31">
-        <v>329398641.5592015</v>
+        <v>3742010780.332</v>
       </c>
       <c r="G31">
-        <v>143216800.6779137</v>
+        <v>1626961208.84</v>
       </c>
       <c r="H31">
-        <v>5040</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1216,25 +1216,25 @@
         <v>43822</v>
       </c>
       <c r="B32">
-        <v>601025784.1477799</v>
+        <v>6900049293.6</v>
       </c>
       <c r="C32">
-        <v>691179651.7699469</v>
+        <v>7935056687.639999</v>
       </c>
       <c r="D32">
-        <v>300512892.07389</v>
+        <v>3450024646.8</v>
       </c>
       <c r="E32">
-        <v>300512892.07389</v>
+        <v>3450024646.8</v>
       </c>
       <c r="F32">
-        <v>345589825.8849735</v>
+        <v>3967528343.82</v>
       </c>
       <c r="G32">
-        <v>150256446.036945</v>
+        <v>1725012323.4</v>
       </c>
       <c r="H32">
-        <v>5040</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1242,25 +1242,25 @@
         <v>43913</v>
       </c>
       <c r="B33">
-        <v>529388792.4</v>
+        <v>6476815655.070001</v>
       </c>
       <c r="C33">
-        <v>608797111.2599999</v>
+        <v>7448338003.330501</v>
       </c>
       <c r="D33">
-        <v>264694396.2</v>
+        <v>3238407827.535</v>
       </c>
       <c r="E33">
-        <v>264694396.2</v>
+        <v>3238407827.535</v>
       </c>
       <c r="F33">
-        <v>304398555.6299999</v>
+        <v>3724169001.66525</v>
       </c>
       <c r="G33">
-        <v>132347198.1</v>
+        <v>1619203913.7675</v>
       </c>
       <c r="H33">
-        <v>5040</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1268,25 +1268,25 @@
         <v>44004</v>
       </c>
       <c r="B34">
-        <v>482176612.4554613</v>
+        <v>6787224729.78</v>
       </c>
       <c r="C34">
-        <v>554503104.3237804</v>
+        <v>7805308439.246999</v>
       </c>
       <c r="D34">
-        <v>241088306.2277306</v>
+        <v>3393612364.89</v>
       </c>
       <c r="E34">
-        <v>241088306.2277306</v>
+        <v>3393612364.89</v>
       </c>
       <c r="F34">
-        <v>277251552.1618902</v>
+        <v>3902654219.623499</v>
       </c>
       <c r="G34">
-        <v>120544153.1138653</v>
+        <v>1696806182.445</v>
       </c>
       <c r="H34">
-        <v>5040</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1294,25 +1294,25 @@
         <v>44095</v>
       </c>
       <c r="B35">
-        <v>572308101.8631001</v>
+        <v>7560977424.7</v>
       </c>
       <c r="C35">
-        <v>658154317.142565</v>
+        <v>8695124038.404999</v>
       </c>
       <c r="D35">
-        <v>286154050.93155</v>
+        <v>3780488712.35</v>
       </c>
       <c r="E35">
-        <v>286154050.93155</v>
+        <v>3780488712.35</v>
       </c>
       <c r="F35">
-        <v>329077158.5712825</v>
+        <v>4347562019.202499</v>
       </c>
       <c r="G35">
-        <v>143077025.465775</v>
+        <v>1890244356.175</v>
       </c>
       <c r="H35">
-        <v>5040</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1320,25 +1320,25 @@
         <v>44186</v>
       </c>
       <c r="B36">
-        <v>604216700.4300001</v>
+        <v>8122134023.240001</v>
       </c>
       <c r="C36">
-        <v>694849205.4945</v>
+        <v>9340454126.726</v>
       </c>
       <c r="D36">
-        <v>302108350.215</v>
+        <v>4061067011.62</v>
       </c>
       <c r="E36">
-        <v>302108350.215</v>
+        <v>4061067011.62</v>
       </c>
       <c r="F36">
-        <v>347424602.74725</v>
+        <v>4670227063.363</v>
       </c>
       <c r="G36">
-        <v>151054175.1075</v>
+        <v>2030533505.81</v>
       </c>
       <c r="H36">
-        <v>5040</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1346,25 +1346,25 @@
         <v>44277</v>
       </c>
       <c r="B37">
-        <v>781062405.8652689</v>
+        <v>8156274756</v>
       </c>
       <c r="C37">
-        <v>898221766.7450593</v>
+        <v>9379715969.4</v>
       </c>
       <c r="D37">
-        <v>390531202.9326345</v>
+        <v>4078137378</v>
       </c>
       <c r="E37">
-        <v>390531202.9326345</v>
+        <v>4078137378</v>
       </c>
       <c r="F37">
-        <v>449110883.3725296</v>
+        <v>4689857984.7</v>
       </c>
       <c r="G37">
-        <v>195265601.4663172</v>
+        <v>2039068689</v>
       </c>
       <c r="H37">
-        <v>5040</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1372,25 +1372,25 @@
         <v>44368</v>
       </c>
       <c r="B38">
-        <v>777798807.7147901</v>
+        <v>9056034692.859726</v>
       </c>
       <c r="C38">
-        <v>894468628.8720086</v>
+        <v>10414439896.78868</v>
       </c>
       <c r="D38">
-        <v>388899403.8573951</v>
+        <v>4528017346.429863</v>
       </c>
       <c r="E38">
-        <v>388899403.8573951</v>
+        <v>4528017346.429863</v>
       </c>
       <c r="F38">
-        <v>447234314.4360043</v>
+        <v>5207219948.394342</v>
       </c>
       <c r="G38">
-        <v>194449701.9286975</v>
+        <v>2264008673.214931</v>
       </c>
       <c r="H38">
-        <v>5040</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1398,25 +1398,25 @@
         <v>44459</v>
       </c>
       <c r="B39">
-        <v>846758423.04</v>
+        <v>9395000776.8708</v>
       </c>
       <c r="C39">
-        <v>973772186.4959999</v>
+        <v>10804250893.40142</v>
       </c>
       <c r="D39">
-        <v>423379211.52</v>
+        <v>4697500388.4354</v>
       </c>
       <c r="E39">
-        <v>423379211.52</v>
+        <v>4697500388.4354</v>
       </c>
       <c r="F39">
-        <v>486886093.248</v>
+        <v>5402125446.700709</v>
       </c>
       <c r="G39">
-        <v>211689605.76</v>
+        <v>2348750194.2177</v>
       </c>
       <c r="H39">
-        <v>5074</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1424,25 +1424,25 @@
         <v>44550</v>
       </c>
       <c r="B40">
-        <v>726220236.8169188</v>
+        <v>9475677759.926474</v>
       </c>
       <c r="C40">
-        <v>835153272.3394566</v>
+        <v>10897029423.91544</v>
       </c>
       <c r="D40">
-        <v>363110118.4084594</v>
+        <v>4737838879.963237</v>
       </c>
       <c r="E40">
-        <v>363110118.4084594</v>
+        <v>4737838879.963237</v>
       </c>
       <c r="F40">
-        <v>417576636.1697283</v>
+        <v>5448514711.957722</v>
       </c>
       <c r="G40">
-        <v>181555059.2042297</v>
+        <v>2368919439.981618</v>
       </c>
       <c r="H40">
-        <v>5074</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1450,25 +1450,25 @@
         <v>44641</v>
       </c>
       <c r="B41">
-        <v>726713038.4391721</v>
+        <v>9134690173.559999</v>
       </c>
       <c r="C41">
-        <v>835719994.205048</v>
+        <v>10504893699.594</v>
       </c>
       <c r="D41">
-        <v>363356519.2195861</v>
+        <v>4567345086.78</v>
       </c>
       <c r="E41">
-        <v>363356519.2195861</v>
+        <v>4567345086.78</v>
       </c>
       <c r="F41">
-        <v>417859997.102524</v>
+        <v>5252446849.796999</v>
       </c>
       <c r="G41">
-        <v>181678259.609793</v>
+        <v>2283672543.39</v>
       </c>
       <c r="H41">
-        <v>5074</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1476,25 +1476,25 @@
         <v>44732</v>
       </c>
       <c r="B42">
-        <v>614136708.1375554</v>
+        <v>8657071363.614367</v>
       </c>
       <c r="C42">
-        <v>706257214.3581886</v>
+        <v>9955632068.156521</v>
       </c>
       <c r="D42">
-        <v>307068354.0687777</v>
+        <v>4328535681.807183</v>
       </c>
       <c r="E42">
-        <v>307068354.0687777</v>
+        <v>4328535681.807183</v>
       </c>
       <c r="F42">
-        <v>353128607.1790943</v>
+        <v>4977816034.07826</v>
       </c>
       <c r="G42">
-        <v>153534177.0343888</v>
+        <v>2164267840.903592</v>
       </c>
       <c r="H42">
-        <v>5074</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1502,25 +1502,25 @@
         <v>44823</v>
       </c>
       <c r="B43">
-        <v>579267094</v>
+        <v>8287678623.759999</v>
       </c>
       <c r="C43">
-        <v>666157158.0999999</v>
+        <v>9530830417.323997</v>
       </c>
       <c r="D43">
-        <v>289633547</v>
+        <v>4143839311.88</v>
       </c>
       <c r="E43">
-        <v>289633547</v>
+        <v>4143839311.88</v>
       </c>
       <c r="F43">
-        <v>333078579.05</v>
+        <v>4765415208.661999</v>
       </c>
       <c r="G43">
-        <v>144816773.5</v>
+        <v>2071919655.94</v>
       </c>
       <c r="H43">
-        <v>5074</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1528,25 +1528,25 @@
         <v>44914</v>
       </c>
       <c r="B44">
-        <v>536862246.5525</v>
+        <v>8702777160.543627</v>
       </c>
       <c r="C44">
-        <v>617391583.535375</v>
+        <v>10008193734.62517</v>
       </c>
       <c r="D44">
-        <v>268431123.27625</v>
+        <v>4351388580.271813</v>
       </c>
       <c r="E44">
-        <v>268431123.27625</v>
+        <v>4351388580.271813</v>
       </c>
       <c r="F44">
-        <v>308695791.7676875</v>
+        <v>5004096867.312585</v>
       </c>
       <c r="G44">
-        <v>134215561.638125</v>
+        <v>2175694290.135907</v>
       </c>
       <c r="H44">
-        <v>5074</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1554,25 +1554,25 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>556054894.5915189</v>
+        <v>8545343564.4</v>
       </c>
       <c r="C45">
-        <v>639463128.7802466</v>
+        <v>9827145099.059999</v>
       </c>
       <c r="D45">
-        <v>278027447.2957594</v>
+        <v>4272671782.2</v>
       </c>
       <c r="E45">
-        <v>278027447.2957594</v>
+        <v>4272671782.2</v>
       </c>
       <c r="F45">
-        <v>319731564.3901233</v>
+        <v>4913572549.53</v>
       </c>
       <c r="G45">
-        <v>139013723.6478797</v>
+        <v>2136335891.1</v>
       </c>
       <c r="H45">
-        <v>5074</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1580,25 +1580,25 @@
         <v>45096</v>
       </c>
       <c r="B46">
-        <v>493260465.7865992</v>
+        <v>8928182449.832253</v>
       </c>
       <c r="C46">
-        <v>567249535.6545891</v>
+        <v>10267409817.30709</v>
       </c>
       <c r="D46">
-        <v>246630232.8932996</v>
+        <v>4464091224.916126</v>
       </c>
       <c r="E46">
-        <v>246630232.8932996</v>
+        <v>4464091224.916126</v>
       </c>
       <c r="F46">
-        <v>283624767.8272945</v>
+        <v>5133704908.653544</v>
       </c>
       <c r="G46">
-        <v>123315116.4466498</v>
+        <v>2232045612.458063</v>
       </c>
       <c r="H46">
-        <v>5074</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1606,25 +1606,25 @@
         <v>45187</v>
       </c>
       <c r="B47">
-        <v>517590183.0168638</v>
+        <v>9369590868</v>
       </c>
       <c r="C47">
-        <v>595228710.4693934</v>
+        <v>10775029498.2</v>
       </c>
       <c r="D47">
-        <v>258795091.5084319</v>
+        <v>4684795434</v>
       </c>
       <c r="E47">
-        <v>258795091.5084319</v>
+        <v>4684795434</v>
       </c>
       <c r="F47">
-        <v>297614355.2346967</v>
+        <v>5387514749.099999</v>
       </c>
       <c r="G47">
-        <v>129397545.754216</v>
+        <v>2342397717</v>
       </c>
       <c r="H47">
-        <v>5074</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1632,25 +1632,25 @@
         <v>45278</v>
       </c>
       <c r="B48">
-        <v>478932793.1930425</v>
+        <v>9142695414</v>
       </c>
       <c r="C48">
-        <v>550772712.1719989</v>
+        <v>10514099726.1</v>
       </c>
       <c r="D48">
-        <v>239466396.5965213</v>
+        <v>4571347707</v>
       </c>
       <c r="E48">
-        <v>239466396.5965213</v>
+        <v>4571347707</v>
       </c>
       <c r="F48">
-        <v>275386356.0859994</v>
+        <v>5257049863.049999</v>
       </c>
       <c r="G48">
-        <v>119733198.2982606</v>
+        <v>2285673853.5</v>
       </c>
       <c r="H48">
-        <v>5074</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1658,25 +1658,25 @@
         <v>45369</v>
       </c>
       <c r="B49">
-        <v>558043681.4503371</v>
+        <v>10084723505.63635</v>
       </c>
       <c r="C49">
-        <v>641750233.6678876</v>
+        <v>11597432031.4818</v>
       </c>
       <c r="D49">
-        <v>279021840.7251685</v>
+        <v>5042361752.818176</v>
       </c>
       <c r="E49">
-        <v>279021840.7251685</v>
+        <v>5042361752.818176</v>
       </c>
       <c r="F49">
-        <v>320875116.8339438</v>
+        <v>5798716015.740902</v>
       </c>
       <c r="G49">
-        <v>139510920.3625843</v>
+        <v>2521180876.409088</v>
       </c>
       <c r="H49">
-        <v>5074</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1684,25 +1684,25 @@
         <v>45467</v>
       </c>
       <c r="B50">
-        <v>542292196.9025506</v>
+        <v>10070244460.86816</v>
       </c>
       <c r="C50">
-        <v>623636026.4379331</v>
+        <v>11580781129.99838</v>
       </c>
       <c r="D50">
-        <v>271146098.4512753</v>
+        <v>5035122230.434079</v>
       </c>
       <c r="E50">
-        <v>271146098.4512753</v>
+        <v>5035122230.434079</v>
       </c>
       <c r="F50">
-        <v>311818013.2189665</v>
+        <v>5790390564.99919</v>
       </c>
       <c r="G50">
-        <v>135573049.2256376</v>
+        <v>2517561115.21704</v>
       </c>
       <c r="H50">
-        <v>5074</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1710,25 +1710,25 @@
         <v>45558</v>
       </c>
       <c r="B51">
-        <v>601736328.5920403</v>
+        <v>10468980006.7</v>
       </c>
       <c r="C51">
-        <v>691996777.8808463</v>
+        <v>12039327007.705</v>
       </c>
       <c r="D51">
-        <v>300868164.2960202</v>
+        <v>5234490003.349999</v>
       </c>
       <c r="E51">
-        <v>300868164.2960202</v>
+        <v>5234490003.349999</v>
       </c>
       <c r="F51">
-        <v>345998388.9404231</v>
+        <v>6019663503.852499</v>
       </c>
       <c r="G51">
-        <v>150434082.1480101</v>
+        <v>2617245001.675</v>
       </c>
       <c r="H51">
-        <v>4379</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>

--- a/Output/TopPercentage_Report_Rebalancing_BR.xlsx
+++ b/Output/TopPercentage_Report_Rebalancing_BR.xlsx
@@ -436,25 +436,25 @@
         <v>41078</v>
       </c>
       <c r="B2">
-        <v>3592000000</v>
+        <v>10307000000</v>
       </c>
       <c r="C2">
-        <v>4130800000</v>
+        <v>11853050000</v>
       </c>
       <c r="D2">
-        <v>1796000000</v>
+        <v>5153500000</v>
       </c>
       <c r="E2">
-        <v>1796000000</v>
+        <v>5153500000</v>
       </c>
       <c r="F2">
-        <v>2065400000</v>
+        <v>5926525000</v>
       </c>
       <c r="G2">
-        <v>898000000</v>
+        <v>2576750000</v>
       </c>
       <c r="H2">
-        <v>1388</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -462,25 +462,25 @@
         <v>41176</v>
       </c>
       <c r="B3">
-        <v>3890771058.509</v>
+        <v>11056626281.11016</v>
       </c>
       <c r="C3">
-        <v>4474386717.28535</v>
+        <v>12715120223.27668</v>
       </c>
       <c r="D3">
-        <v>1945385529.2545</v>
+        <v>5528313140.55508</v>
       </c>
       <c r="E3">
-        <v>1945385529.2545</v>
+        <v>5528313140.55508</v>
       </c>
       <c r="F3">
-        <v>2237193358.642675</v>
+        <v>6357560111.638342</v>
       </c>
       <c r="G3">
-        <v>972692764.62725</v>
+        <v>2764156570.27754</v>
       </c>
       <c r="H3">
-        <v>1388</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -488,25 +488,25 @@
         <v>41267</v>
       </c>
       <c r="B4">
-        <v>4095602668.6</v>
+        <v>11284728462.5</v>
       </c>
       <c r="C4">
-        <v>4709943068.889999</v>
+        <v>12977437731.875</v>
       </c>
       <c r="D4">
-        <v>2047801334.3</v>
+        <v>5642364231.25</v>
       </c>
       <c r="E4">
-        <v>2047801334.3</v>
+        <v>5642364231.25</v>
       </c>
       <c r="F4">
-        <v>2354971534.445</v>
+        <v>6488718865.937499</v>
       </c>
       <c r="G4">
-        <v>1023900667.15</v>
+        <v>2821182115.625</v>
       </c>
       <c r="H4">
-        <v>1317</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -514,25 +514,25 @@
         <v>41351</v>
       </c>
       <c r="B5">
-        <v>4325642280.417162</v>
+        <v>12045309498.71739</v>
       </c>
       <c r="C5">
-        <v>4974488622.479735</v>
+        <v>13852105923.525</v>
       </c>
       <c r="D5">
-        <v>2162821140.208581</v>
+        <v>6022654749.358695</v>
       </c>
       <c r="E5">
-        <v>2162821140.208581</v>
+        <v>6022654749.358695</v>
       </c>
       <c r="F5">
-        <v>2487244311.239868</v>
+        <v>6926052961.762499</v>
       </c>
       <c r="G5">
-        <v>1081410570.10429</v>
+        <v>3011327374.679348</v>
       </c>
       <c r="H5">
-        <v>1349</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -540,25 +540,25 @@
         <v>41449</v>
       </c>
       <c r="B6">
-        <v>4628512058.350773</v>
+        <v>12709949723.77419</v>
       </c>
       <c r="C6">
-        <v>5322788867.103389</v>
+        <v>14616442182.34032</v>
       </c>
       <c r="D6">
-        <v>2314256029.175386</v>
+        <v>6354974861.887097</v>
       </c>
       <c r="E6">
-        <v>2314256029.175386</v>
+        <v>6354974861.887097</v>
       </c>
       <c r="F6">
-        <v>2661394433.551694</v>
+        <v>7308221091.170161</v>
       </c>
       <c r="G6">
-        <v>1157128014.587693</v>
+        <v>3177487430.943549</v>
       </c>
       <c r="H6">
-        <v>1329</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -566,25 +566,25 @@
         <v>41540</v>
       </c>
       <c r="B7">
-        <v>4610453253.75</v>
+        <v>13241049554.9437</v>
       </c>
       <c r="C7">
-        <v>5302021241.8125</v>
+        <v>15227206988.18526</v>
       </c>
       <c r="D7">
-        <v>2305226626.875</v>
+        <v>6620524777.471851</v>
       </c>
       <c r="E7">
-        <v>2305226626.875</v>
+        <v>6620524777.471851</v>
       </c>
       <c r="F7">
-        <v>2651010620.90625</v>
+        <v>7613603494.092628</v>
       </c>
       <c r="G7">
-        <v>1152613313.4375</v>
+        <v>3310262388.735926</v>
       </c>
       <c r="H7">
-        <v>1351</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -592,25 +592,25 @@
         <v>41631</v>
       </c>
       <c r="B8">
-        <v>5154126241.182968</v>
+        <v>14536602784.57117</v>
       </c>
       <c r="C8">
-        <v>5927245177.360413</v>
+        <v>16717093202.25685</v>
       </c>
       <c r="D8">
-        <v>2577063120.591484</v>
+        <v>7268301392.285585</v>
       </c>
       <c r="E8">
-        <v>2577063120.591484</v>
+        <v>7268301392.285585</v>
       </c>
       <c r="F8">
-        <v>2963622588.680206</v>
+        <v>8358546601.128423</v>
       </c>
       <c r="G8">
-        <v>1288531560.295742</v>
+        <v>3634150696.142793</v>
       </c>
       <c r="H8">
-        <v>1334</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -618,25 +618,25 @@
         <v>41722</v>
       </c>
       <c r="B9">
-        <v>5220362506.809403</v>
+        <v>14743091723.47679</v>
       </c>
       <c r="C9">
-        <v>6003416882.830813</v>
+        <v>16954555481.9983</v>
       </c>
       <c r="D9">
-        <v>2610181253.404702</v>
+        <v>7371545861.738394</v>
       </c>
       <c r="E9">
-        <v>2610181253.404702</v>
+        <v>7371545861.738394</v>
       </c>
       <c r="F9">
-        <v>3001708441.415407</v>
+        <v>8477277740.999152</v>
       </c>
       <c r="G9">
-        <v>1305090626.702351</v>
+        <v>3685772930.869197</v>
       </c>
       <c r="H9">
-        <v>1375</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -644,25 +644,25 @@
         <v>41813</v>
       </c>
       <c r="B10">
-        <v>5276952330.42</v>
+        <v>15163326697.6</v>
       </c>
       <c r="C10">
-        <v>6068495179.983</v>
+        <v>17437825702.24</v>
       </c>
       <c r="D10">
-        <v>2638476165.21</v>
+        <v>7581663348.8</v>
       </c>
       <c r="E10">
-        <v>2638476165.21</v>
+        <v>7581663348.8</v>
       </c>
       <c r="F10">
-        <v>3034247589.9915</v>
+        <v>8718912851.119999</v>
       </c>
       <c r="G10">
-        <v>1319238082.605</v>
+        <v>3790831674.4</v>
       </c>
       <c r="H10">
-        <v>1351</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -670,25 +670,25 @@
         <v>41904</v>
       </c>
       <c r="B11">
-        <v>5380296439.608351</v>
+        <v>14966123675.15414</v>
       </c>
       <c r="C11">
-        <v>6187340905.549603</v>
+        <v>17211042226.42726</v>
       </c>
       <c r="D11">
-        <v>2690148219.804175</v>
+        <v>7483061837.577069</v>
       </c>
       <c r="E11">
-        <v>2690148219.804175</v>
+        <v>7483061837.577069</v>
       </c>
       <c r="F11">
-        <v>3093670452.774801</v>
+        <v>8605521113.213629</v>
       </c>
       <c r="G11">
-        <v>1345074109.902088</v>
+        <v>3741530918.788535</v>
       </c>
       <c r="H11">
-        <v>1376</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -696,25 +696,25 @@
         <v>41995</v>
       </c>
       <c r="B12">
-        <v>5476633320</v>
+        <v>15787365880</v>
       </c>
       <c r="C12">
-        <v>6298128317.999999</v>
+        <v>18155470762</v>
       </c>
       <c r="D12">
-        <v>2738316660</v>
+        <v>7893682940</v>
       </c>
       <c r="E12">
-        <v>2738316660</v>
+        <v>7893682940</v>
       </c>
       <c r="F12">
-        <v>3149064159</v>
+        <v>9077735381</v>
       </c>
       <c r="G12">
-        <v>1369158330</v>
+        <v>3946841470</v>
       </c>
       <c r="H12">
-        <v>1321</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -722,25 +722,25 @@
         <v>42086</v>
       </c>
       <c r="B13">
-        <v>5434069656.432</v>
+        <v>15582235564.35</v>
       </c>
       <c r="C13">
-        <v>6249180104.8968</v>
+        <v>17919570899.0025</v>
       </c>
       <c r="D13">
-        <v>2717034828.216</v>
+        <v>7791117782.175</v>
       </c>
       <c r="E13">
-        <v>2717034828.216</v>
+        <v>7791117782.175</v>
       </c>
       <c r="F13">
-        <v>3124590052.4484</v>
+        <v>8959785449.501249</v>
       </c>
       <c r="G13">
-        <v>1358517414.108</v>
+        <v>3895558891.0875</v>
       </c>
       <c r="H13">
-        <v>1358</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -748,25 +748,25 @@
         <v>42177</v>
       </c>
       <c r="B14">
-        <v>5510353117.217601</v>
+        <v>15078190307.41764</v>
       </c>
       <c r="C14">
-        <v>6336906084.800241</v>
+        <v>17339918853.53028</v>
       </c>
       <c r="D14">
-        <v>2755176558.6088</v>
+        <v>7539095153.70882</v>
       </c>
       <c r="E14">
-        <v>2755176558.6088</v>
+        <v>7539095153.70882</v>
       </c>
       <c r="F14">
-        <v>3168453042.40012</v>
+        <v>8669959426.765142</v>
       </c>
       <c r="G14">
-        <v>1377588279.3044</v>
+        <v>3769547576.85441</v>
       </c>
       <c r="H14">
-        <v>1374</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -774,25 +774,25 @@
         <v>42268</v>
       </c>
       <c r="B15">
-        <v>4974714172.83654</v>
+        <v>14086715881.68</v>
       </c>
       <c r="C15">
-        <v>5720921298.762021</v>
+        <v>16199723263.932</v>
       </c>
       <c r="D15">
-        <v>2487357086.41827</v>
+        <v>7043357940.84</v>
       </c>
       <c r="E15">
-        <v>2487357086.41827</v>
+        <v>7043357940.84</v>
       </c>
       <c r="F15">
-        <v>2860460649.381011</v>
+        <v>8099861631.966</v>
       </c>
       <c r="G15">
-        <v>1243678543.209135</v>
+        <v>3521678970.42</v>
       </c>
       <c r="H15">
-        <v>1401</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -800,25 +800,25 @@
         <v>42359</v>
       </c>
       <c r="B16">
-        <v>5213808777.091681</v>
+        <v>14502393436.15</v>
       </c>
       <c r="C16">
-        <v>5995880093.655432</v>
+        <v>16677752451.5725</v>
       </c>
       <c r="D16">
-        <v>2606904388.54584</v>
+        <v>7251196718.075</v>
       </c>
       <c r="E16">
-        <v>2606904388.54584</v>
+        <v>7251196718.075</v>
       </c>
       <c r="F16">
-        <v>2997940046.827716</v>
+        <v>8338876225.786249</v>
       </c>
       <c r="G16">
-        <v>1303452194.27292</v>
+        <v>3625598359.0375</v>
       </c>
       <c r="H16">
-        <v>1365</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -826,25 +826,25 @@
         <v>42450</v>
       </c>
       <c r="B17">
-        <v>4834027350</v>
+        <v>13798027362.9</v>
       </c>
       <c r="C17">
-        <v>5559131452.5</v>
+        <v>15867731467.335</v>
       </c>
       <c r="D17">
-        <v>2417013675</v>
+        <v>6899013681.45</v>
       </c>
       <c r="E17">
-        <v>2417013675</v>
+        <v>6899013681.45</v>
       </c>
       <c r="F17">
-        <v>2779565726.25</v>
+        <v>7933865733.6675</v>
       </c>
       <c r="G17">
-        <v>1208506837.5</v>
+        <v>3449506840.725</v>
       </c>
       <c r="H17">
-        <v>1348</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -852,25 +852,25 @@
         <v>42541</v>
       </c>
       <c r="B18">
-        <v>5183722901.59</v>
+        <v>14500710124.95</v>
       </c>
       <c r="C18">
-        <v>5961281336.8285</v>
+        <v>16675816643.6925</v>
       </c>
       <c r="D18">
-        <v>2591861450.795</v>
+        <v>7250355062.474999</v>
       </c>
       <c r="E18">
-        <v>2591861450.795</v>
+        <v>7250355062.474999</v>
       </c>
       <c r="F18">
-        <v>2980640668.41425</v>
+        <v>8337908321.846249</v>
       </c>
       <c r="G18">
-        <v>1295930725.3975</v>
+        <v>3625177531.2375</v>
       </c>
       <c r="H18">
-        <v>1371</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -878,25 +878,25 @@
         <v>42632</v>
       </c>
       <c r="B19">
-        <v>5197334466.24</v>
+        <v>14777744793.26735</v>
       </c>
       <c r="C19">
-        <v>5976934636.176</v>
+        <v>16994406512.25745</v>
       </c>
       <c r="D19">
-        <v>2598667233.12</v>
+        <v>7388872396.633677</v>
       </c>
       <c r="E19">
-        <v>2598667233.12</v>
+        <v>7388872396.633677</v>
       </c>
       <c r="F19">
-        <v>2988467318.088</v>
+        <v>8497203256.128727</v>
       </c>
       <c r="G19">
-        <v>1299333616.56</v>
+        <v>3694436198.316838</v>
       </c>
       <c r="H19">
-        <v>1387</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -904,25 +904,25 @@
         <v>42723</v>
       </c>
       <c r="B20">
-        <v>5125837926.293759</v>
+        <v>14335086039.12</v>
       </c>
       <c r="C20">
-        <v>5894713615.237823</v>
+        <v>16485348944.988</v>
       </c>
       <c r="D20">
-        <v>2562918963.14688</v>
+        <v>7167543019.559999</v>
       </c>
       <c r="E20">
-        <v>2562918963.14688</v>
+        <v>7167543019.559999</v>
       </c>
       <c r="F20">
-        <v>2947356807.618911</v>
+        <v>8242674472.493999</v>
       </c>
       <c r="G20">
-        <v>1281459481.57344</v>
+        <v>3583771509.78</v>
       </c>
       <c r="H20">
-        <v>1381</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -930,25 +930,25 @@
         <v>42814</v>
       </c>
       <c r="B21">
-        <v>5425925412.88</v>
+        <v>15523227604.75375</v>
       </c>
       <c r="C21">
-        <v>6239814224.811999</v>
+        <v>17851711745.46681</v>
       </c>
       <c r="D21">
-        <v>2712962706.44</v>
+        <v>7761613802.376875</v>
       </c>
       <c r="E21">
-        <v>2712962706.44</v>
+        <v>7761613802.376875</v>
       </c>
       <c r="F21">
-        <v>3119907112.406</v>
+        <v>8925855872.733406</v>
       </c>
       <c r="G21">
-        <v>1356481353.22</v>
+        <v>3880806901.188437</v>
       </c>
       <c r="H21">
-        <v>1394</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -956,25 +956,25 @@
         <v>42905</v>
       </c>
       <c r="B22">
-        <v>5814740109.92</v>
+        <v>16664752456.66471</v>
       </c>
       <c r="C22">
-        <v>6686951126.408</v>
+        <v>19164465325.16442</v>
       </c>
       <c r="D22">
-        <v>2907370054.96</v>
+        <v>8332376228.332357</v>
       </c>
       <c r="E22">
-        <v>2907370054.96</v>
+        <v>8332376228.332357</v>
       </c>
       <c r="F22">
-        <v>3343475563.204</v>
+        <v>9582232662.582211</v>
       </c>
       <c r="G22">
-        <v>1453685027.48</v>
+        <v>4166188114.166179</v>
       </c>
       <c r="H22">
-        <v>1384</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -982,25 +982,25 @@
         <v>42996</v>
       </c>
       <c r="B23">
-        <v>5813735074.6</v>
+        <v>16300213989.56593</v>
       </c>
       <c r="C23">
-        <v>6685795335.79</v>
+        <v>18745246088.00082</v>
       </c>
       <c r="D23">
-        <v>2906867537.3</v>
+        <v>8150106994.782965</v>
       </c>
       <c r="E23">
-        <v>2906867537.3</v>
+        <v>8150106994.782965</v>
       </c>
       <c r="F23">
-        <v>3342897667.895</v>
+        <v>9372623044.000408</v>
       </c>
       <c r="G23">
-        <v>1453433768.65</v>
+        <v>4075053497.391482</v>
       </c>
       <c r="H23">
-        <v>1413</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1008,25 +1008,25 @@
         <v>43087</v>
       </c>
       <c r="B24">
-        <v>6262400347</v>
+        <v>16923006275</v>
       </c>
       <c r="C24">
-        <v>7201760399.049999</v>
+        <v>19461457216.25</v>
       </c>
       <c r="D24">
-        <v>3131200173.5</v>
+        <v>8461503137.5</v>
       </c>
       <c r="E24">
-        <v>3131200173.5</v>
+        <v>8461503137.5</v>
       </c>
       <c r="F24">
-        <v>3600880199.525</v>
+        <v>9730728608.125</v>
       </c>
       <c r="G24">
-        <v>1565600086.75</v>
+        <v>4230751568.75</v>
       </c>
       <c r="H24">
-        <v>1407</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1034,25 +1034,25 @@
         <v>43178</v>
       </c>
       <c r="B25">
-        <v>6367519466.88</v>
+        <v>17709160770.44394</v>
       </c>
       <c r="C25">
-        <v>7322647386.912</v>
+        <v>20365534886.01053</v>
       </c>
       <c r="D25">
-        <v>3183759733.44</v>
+        <v>8854580385.22197</v>
       </c>
       <c r="E25">
-        <v>3183759733.44</v>
+        <v>8854580385.22197</v>
       </c>
       <c r="F25">
-        <v>3661323693.456</v>
+        <v>10182767443.00526</v>
       </c>
       <c r="G25">
-        <v>1591879866.72</v>
+        <v>4427290192.610985</v>
       </c>
       <c r="H25">
-        <v>1408</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1060,25 +1060,25 @@
         <v>43269</v>
       </c>
       <c r="B26">
-        <v>6176997181.49146</v>
+        <v>17439308799.99</v>
       </c>
       <c r="C26">
-        <v>7103546758.715178</v>
+        <v>20055205119.9885</v>
       </c>
       <c r="D26">
-        <v>3088498590.74573</v>
+        <v>8719654399.995001</v>
       </c>
       <c r="E26">
-        <v>3088498590.74573</v>
+        <v>8719654399.995001</v>
       </c>
       <c r="F26">
-        <v>3551773379.357589</v>
+        <v>10027602559.99425</v>
       </c>
       <c r="G26">
-        <v>1544249295.372865</v>
+        <v>4359827199.9975</v>
       </c>
       <c r="H26">
-        <v>1420</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1086,25 +1086,25 @@
         <v>43367</v>
       </c>
       <c r="B27">
-        <v>6387789679.918047</v>
+        <v>18158318452.03253</v>
       </c>
       <c r="C27">
-        <v>7345958131.905753</v>
+        <v>20882066219.83741</v>
       </c>
       <c r="D27">
-        <v>3193894839.959023</v>
+        <v>9079159226.016264</v>
       </c>
       <c r="E27">
-        <v>3193894839.959023</v>
+        <v>9079159226.016264</v>
       </c>
       <c r="F27">
-        <v>3672979065.952877</v>
+        <v>10441033109.9187</v>
       </c>
       <c r="G27">
-        <v>1596947419.979512</v>
+        <v>4539579613.008132</v>
       </c>
       <c r="H27">
-        <v>1410</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1112,25 +1112,25 @@
         <v>43458</v>
       </c>
       <c r="B28">
-        <v>6110499463.639999</v>
+        <v>17335932147</v>
       </c>
       <c r="C28">
-        <v>7027074383.185999</v>
+        <v>19936321969.05</v>
       </c>
       <c r="D28">
-        <v>3055249731.82</v>
+        <v>8667966073.5</v>
       </c>
       <c r="E28">
-        <v>3055249731.82</v>
+        <v>8667966073.5</v>
       </c>
       <c r="F28">
-        <v>3513537191.592999</v>
+        <v>9968160984.525</v>
       </c>
       <c r="G28">
-        <v>1527624865.91</v>
+        <v>4333983036.75</v>
       </c>
       <c r="H28">
-        <v>1357</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1138,25 +1138,25 @@
         <v>43542</v>
       </c>
       <c r="B29">
-        <v>6325893273.72</v>
+        <v>17818742645.74882</v>
       </c>
       <c r="C29">
-        <v>7274777264.778</v>
+        <v>20491554042.61114</v>
       </c>
       <c r="D29">
-        <v>3162946636.86</v>
+        <v>8909371322.874411</v>
       </c>
       <c r="E29">
-        <v>3162946636.86</v>
+        <v>8909371322.874411</v>
       </c>
       <c r="F29">
-        <v>3637388632.389</v>
+        <v>10245777021.30557</v>
       </c>
       <c r="G29">
-        <v>1581473318.43</v>
+        <v>4454685661.437205</v>
       </c>
       <c r="H29">
-        <v>1373</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1164,25 +1164,25 @@
         <v>43640</v>
       </c>
       <c r="B30">
-        <v>6232635222</v>
+        <v>18069155027.4099</v>
       </c>
       <c r="C30">
-        <v>7167530505.299999</v>
+        <v>20779528281.52139</v>
       </c>
       <c r="D30">
-        <v>3116317611</v>
+        <v>9034577513.704952</v>
       </c>
       <c r="E30">
-        <v>3116317611</v>
+        <v>9034577513.704952</v>
       </c>
       <c r="F30">
-        <v>3583765252.65</v>
+        <v>10389764140.76069</v>
       </c>
       <c r="G30">
-        <v>1558158805.5</v>
+        <v>4517288756.852476</v>
       </c>
       <c r="H30">
-        <v>1345</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1190,25 +1190,25 @@
         <v>43731</v>
       </c>
       <c r="B31">
-        <v>6507844835.360001</v>
+        <v>18938627926.34</v>
       </c>
       <c r="C31">
-        <v>7484021560.664001</v>
+        <v>21779422115.291</v>
       </c>
       <c r="D31">
-        <v>3253922417.68</v>
+        <v>9469313963.17</v>
       </c>
       <c r="E31">
-        <v>3253922417.68</v>
+        <v>9469313963.17</v>
       </c>
       <c r="F31">
-        <v>3742010780.332</v>
+        <v>10889711057.6455</v>
       </c>
       <c r="G31">
-        <v>1626961208.84</v>
+        <v>4734656981.585</v>
       </c>
       <c r="H31">
-        <v>1326</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1216,25 +1216,25 @@
         <v>43822</v>
       </c>
       <c r="B32">
-        <v>6900049293.6</v>
+        <v>20139938919.1</v>
       </c>
       <c r="C32">
-        <v>7935056687.639999</v>
+        <v>23160929756.965</v>
       </c>
       <c r="D32">
-        <v>3450024646.8</v>
+        <v>10069969459.55</v>
       </c>
       <c r="E32">
-        <v>3450024646.8</v>
+        <v>10069969459.55</v>
       </c>
       <c r="F32">
-        <v>3967528343.82</v>
+        <v>11580464878.4825</v>
       </c>
       <c r="G32">
-        <v>1725012323.4</v>
+        <v>5034984729.775</v>
       </c>
       <c r="H32">
-        <v>1331</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1242,25 +1242,25 @@
         <v>43913</v>
       </c>
       <c r="B33">
-        <v>6476815655.070001</v>
+        <v>19000300237.49</v>
       </c>
       <c r="C33">
-        <v>7448338003.330501</v>
+        <v>21850345273.11349</v>
       </c>
       <c r="D33">
-        <v>3238407827.535</v>
+        <v>9500150118.744999</v>
       </c>
       <c r="E33">
-        <v>3238407827.535</v>
+        <v>9500150118.744999</v>
       </c>
       <c r="F33">
-        <v>3724169001.66525</v>
+        <v>10925172636.55675</v>
       </c>
       <c r="G33">
-        <v>1619203913.7675</v>
+        <v>4750075059.372499</v>
       </c>
       <c r="H33">
-        <v>1294</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1268,25 +1268,25 @@
         <v>44004</v>
       </c>
       <c r="B34">
-        <v>6787224729.78</v>
+        <v>19695148889.43835</v>
       </c>
       <c r="C34">
-        <v>7805308439.246999</v>
+        <v>22649421222.8541</v>
       </c>
       <c r="D34">
-        <v>3393612364.89</v>
+        <v>9847574444.719175</v>
       </c>
       <c r="E34">
-        <v>3393612364.89</v>
+        <v>9847574444.719175</v>
       </c>
       <c r="F34">
-        <v>3902654219.623499</v>
+        <v>11324710611.42705</v>
       </c>
       <c r="G34">
-        <v>1696806182.445</v>
+        <v>4923787222.359588</v>
       </c>
       <c r="H34">
-        <v>1294</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1294,25 +1294,25 @@
         <v>44095</v>
       </c>
       <c r="B35">
-        <v>7560977424.7</v>
+        <v>22135064415.94217</v>
       </c>
       <c r="C35">
-        <v>8695124038.404999</v>
+        <v>25455324078.3335</v>
       </c>
       <c r="D35">
-        <v>3780488712.35</v>
+        <v>11067532207.97109</v>
       </c>
       <c r="E35">
-        <v>3780488712.35</v>
+        <v>11067532207.97109</v>
       </c>
       <c r="F35">
-        <v>4347562019.202499</v>
+        <v>12727662039.16675</v>
       </c>
       <c r="G35">
-        <v>1890244356.175</v>
+        <v>5533766103.985543</v>
       </c>
       <c r="H35">
-        <v>1294</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1320,25 +1320,25 @@
         <v>44186</v>
       </c>
       <c r="B36">
-        <v>8122134023.240001</v>
+        <v>24016013528.8031</v>
       </c>
       <c r="C36">
-        <v>9340454126.726</v>
+        <v>27618415558.12356</v>
       </c>
       <c r="D36">
-        <v>4061067011.62</v>
+        <v>12008006764.40155</v>
       </c>
       <c r="E36">
-        <v>4061067011.62</v>
+        <v>12008006764.40155</v>
       </c>
       <c r="F36">
-        <v>4670227063.363</v>
+        <v>13809207779.06178</v>
       </c>
       <c r="G36">
-        <v>2030533505.81</v>
+        <v>6004003382.200774</v>
       </c>
       <c r="H36">
-        <v>1239</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1346,25 +1346,25 @@
         <v>44277</v>
       </c>
       <c r="B37">
-        <v>8156274756</v>
+        <v>24299599445.57985</v>
       </c>
       <c r="C37">
-        <v>9379715969.4</v>
+        <v>27944539362.41683</v>
       </c>
       <c r="D37">
-        <v>4078137378</v>
+        <v>12149799722.78993</v>
       </c>
       <c r="E37">
-        <v>4078137378</v>
+        <v>12149799722.78993</v>
       </c>
       <c r="F37">
-        <v>4689857984.7</v>
+        <v>13972269681.20841</v>
       </c>
       <c r="G37">
-        <v>2039068689</v>
+        <v>6074899861.394963</v>
       </c>
       <c r="H37">
-        <v>1344</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1372,25 +1372,25 @@
         <v>44368</v>
       </c>
       <c r="B38">
-        <v>9056034692.859726</v>
+        <v>27043587094.96</v>
       </c>
       <c r="C38">
-        <v>10414439896.78868</v>
+        <v>31100125159.20399</v>
       </c>
       <c r="D38">
-        <v>4528017346.429863</v>
+        <v>13521793547.48</v>
       </c>
       <c r="E38">
-        <v>4528017346.429863</v>
+        <v>13521793547.48</v>
       </c>
       <c r="F38">
-        <v>5207219948.394342</v>
+        <v>15550062579.602</v>
       </c>
       <c r="G38">
-        <v>2264008673.214931</v>
+        <v>6760896773.74</v>
       </c>
       <c r="H38">
-        <v>1295</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1398,25 +1398,25 @@
         <v>44459</v>
       </c>
       <c r="B39">
-        <v>9395000776.8708</v>
+        <v>29423601680.8</v>
       </c>
       <c r="C39">
-        <v>10804250893.40142</v>
+        <v>33837141932.92</v>
       </c>
       <c r="D39">
-        <v>4697500388.4354</v>
+        <v>14711800840.4</v>
       </c>
       <c r="E39">
-        <v>4697500388.4354</v>
+        <v>14711800840.4</v>
       </c>
       <c r="F39">
-        <v>5402125446.700709</v>
+        <v>16918570966.46</v>
       </c>
       <c r="G39">
-        <v>2348750194.2177</v>
+        <v>7355900420.2</v>
       </c>
       <c r="H39">
-        <v>1287</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1424,25 +1424,25 @@
         <v>44550</v>
       </c>
       <c r="B40">
-        <v>9475677759.926474</v>
+        <v>29036332160</v>
       </c>
       <c r="C40">
-        <v>10897029423.91544</v>
+        <v>33391781984</v>
       </c>
       <c r="D40">
-        <v>4737838879.963237</v>
+        <v>14518166080</v>
       </c>
       <c r="E40">
-        <v>4737838879.963237</v>
+        <v>14518166080</v>
       </c>
       <c r="F40">
-        <v>5448514711.957722</v>
+        <v>16695890992</v>
       </c>
       <c r="G40">
-        <v>2368919439.981618</v>
+        <v>7259083040</v>
       </c>
       <c r="H40">
-        <v>1287</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1450,25 +1450,25 @@
         <v>44641</v>
       </c>
       <c r="B41">
-        <v>9134690173.559999</v>
+        <v>28125093874.30869</v>
       </c>
       <c r="C41">
-        <v>10504893699.594</v>
+        <v>32343857955.45499</v>
       </c>
       <c r="D41">
-        <v>4567345086.78</v>
+        <v>14062546937.15434</v>
       </c>
       <c r="E41">
-        <v>4567345086.78</v>
+        <v>14062546937.15434</v>
       </c>
       <c r="F41">
-        <v>5252446849.796999</v>
+        <v>16171928977.72749</v>
       </c>
       <c r="G41">
-        <v>2283672543.39</v>
+        <v>7031273468.577171</v>
       </c>
       <c r="H41">
-        <v>1219</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1476,25 +1476,25 @@
         <v>44732</v>
       </c>
       <c r="B42">
-        <v>8657071363.614367</v>
+        <v>25946678434.733</v>
       </c>
       <c r="C42">
-        <v>9955632068.156521</v>
+        <v>29838680199.94295</v>
       </c>
       <c r="D42">
-        <v>4328535681.807183</v>
+        <v>12973339217.3665</v>
       </c>
       <c r="E42">
-        <v>4328535681.807183</v>
+        <v>12973339217.3665</v>
       </c>
       <c r="F42">
-        <v>4977816034.07826</v>
+        <v>14919340099.97148</v>
       </c>
       <c r="G42">
-        <v>2164267840.903592</v>
+        <v>6486669608.68325</v>
       </c>
       <c r="H42">
-        <v>1177</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1502,25 +1502,25 @@
         <v>44823</v>
       </c>
       <c r="B43">
-        <v>8287678623.759999</v>
+        <v>24705833417.55</v>
       </c>
       <c r="C43">
-        <v>9530830417.323997</v>
+        <v>28411708430.1825</v>
       </c>
       <c r="D43">
-        <v>4143839311.88</v>
+        <v>12352916708.775</v>
       </c>
       <c r="E43">
-        <v>4143839311.88</v>
+        <v>12352916708.775</v>
       </c>
       <c r="F43">
-        <v>4765415208.661999</v>
+        <v>14205854215.09125</v>
       </c>
       <c r="G43">
-        <v>2071919655.94</v>
+        <v>6176458354.387501</v>
       </c>
       <c r="H43">
-        <v>1162</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1528,25 +1528,25 @@
         <v>44914</v>
       </c>
       <c r="B44">
-        <v>8702777160.543627</v>
+        <v>25170239374.7</v>
       </c>
       <c r="C44">
-        <v>10008193734.62517</v>
+        <v>28945775280.90499</v>
       </c>
       <c r="D44">
-        <v>4351388580.271813</v>
+        <v>12585119687.35</v>
       </c>
       <c r="E44">
-        <v>4351388580.271813</v>
+        <v>12585119687.35</v>
       </c>
       <c r="F44">
-        <v>5004096867.312585</v>
+        <v>14472887640.4525</v>
       </c>
       <c r="G44">
-        <v>2175694290.135907</v>
+        <v>6292559843.674999</v>
       </c>
       <c r="H44">
-        <v>1126</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1554,25 +1554,25 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>8545343564.4</v>
+        <v>25519185079.74</v>
       </c>
       <c r="C45">
-        <v>9827145099.059999</v>
+        <v>29347062841.701</v>
       </c>
       <c r="D45">
-        <v>4272671782.2</v>
+        <v>12759592539.87</v>
       </c>
       <c r="E45">
-        <v>4272671782.2</v>
+        <v>12759592539.87</v>
       </c>
       <c r="F45">
-        <v>4913572549.53</v>
+        <v>14673531420.8505</v>
       </c>
       <c r="G45">
-        <v>2136335891.1</v>
+        <v>6379796269.934999</v>
       </c>
       <c r="H45">
-        <v>1166</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1580,25 +1580,25 @@
         <v>45096</v>
       </c>
       <c r="B46">
-        <v>8928182449.832253</v>
+        <v>26059448494.56</v>
       </c>
       <c r="C46">
-        <v>10267409817.30709</v>
+        <v>29968365768.744</v>
       </c>
       <c r="D46">
-        <v>4464091224.916126</v>
+        <v>13029724247.28</v>
       </c>
       <c r="E46">
-        <v>4464091224.916126</v>
+        <v>13029724247.28</v>
       </c>
       <c r="F46">
-        <v>5133704908.653544</v>
+        <v>14984182884.372</v>
       </c>
       <c r="G46">
-        <v>2232045612.458063</v>
+        <v>6514862123.639999</v>
       </c>
       <c r="H46">
-        <v>1166</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1606,25 +1606,25 @@
         <v>45187</v>
       </c>
       <c r="B47">
-        <v>9369590868</v>
+        <v>28450291455.30088</v>
       </c>
       <c r="C47">
-        <v>10775029498.2</v>
+        <v>32717835173.59602</v>
       </c>
       <c r="D47">
-        <v>4684795434</v>
+        <v>14225145727.65044</v>
       </c>
       <c r="E47">
-        <v>4684795434</v>
+        <v>14225145727.65044</v>
       </c>
       <c r="F47">
-        <v>5387514749.099999</v>
+        <v>16358917586.79801</v>
       </c>
       <c r="G47">
-        <v>2342397717</v>
+        <v>7112572863.825221</v>
       </c>
       <c r="H47">
-        <v>1166</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1632,25 +1632,25 @@
         <v>45278</v>
       </c>
       <c r="B48">
-        <v>9142695414</v>
+        <v>28713618388.49</v>
       </c>
       <c r="C48">
-        <v>10514099726.1</v>
+        <v>33020661146.7635</v>
       </c>
       <c r="D48">
-        <v>4571347707</v>
+        <v>14356809194.245</v>
       </c>
       <c r="E48">
-        <v>4571347707</v>
+        <v>14356809194.245</v>
       </c>
       <c r="F48">
-        <v>5257049863.049999</v>
+        <v>16510330573.38175</v>
       </c>
       <c r="G48">
-        <v>2285673853.5</v>
+        <v>7178404597.122499</v>
       </c>
       <c r="H48">
-        <v>1166</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1658,25 +1658,25 @@
         <v>45369</v>
       </c>
       <c r="B49">
-        <v>10084723505.63635</v>
+        <v>32679829000</v>
       </c>
       <c r="C49">
-        <v>11597432031.4818</v>
+        <v>37581803350</v>
       </c>
       <c r="D49">
-        <v>5042361752.818176</v>
+        <v>16339914500</v>
       </c>
       <c r="E49">
-        <v>5042361752.818176</v>
+        <v>16339914500</v>
       </c>
       <c r="F49">
-        <v>5798716015.740902</v>
+        <v>18790901675</v>
       </c>
       <c r="G49">
-        <v>2521180876.409088</v>
+        <v>8169957250</v>
       </c>
       <c r="H49">
-        <v>1166</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1684,25 +1684,25 @@
         <v>45467</v>
       </c>
       <c r="B50">
-        <v>10070244460.86816</v>
+        <v>33996788535.6</v>
       </c>
       <c r="C50">
-        <v>11580781129.99838</v>
+        <v>39096306815.94</v>
       </c>
       <c r="D50">
-        <v>5035122230.434079</v>
+        <v>16998394267.8</v>
       </c>
       <c r="E50">
-        <v>5035122230.434079</v>
+        <v>16998394267.8</v>
       </c>
       <c r="F50">
-        <v>5790390564.99919</v>
+        <v>19548153407.97</v>
       </c>
       <c r="G50">
-        <v>2517561115.21704</v>
+        <v>8499197133.900001</v>
       </c>
       <c r="H50">
-        <v>1166</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1710,25 +1710,25 @@
         <v>45558</v>
       </c>
       <c r="B51">
-        <v>10476407917.76</v>
+        <v>35995203859.14</v>
       </c>
       <c r="C51">
-        <v>12047869105.424</v>
+        <v>41394484438.01099</v>
       </c>
       <c r="D51">
-        <v>5238203958.88</v>
+        <v>17997601929.57</v>
       </c>
       <c r="E51">
-        <v>5238203958.88</v>
+        <v>17997601929.57</v>
       </c>
       <c r="F51">
-        <v>6023934552.712</v>
+        <v>20697242219.0055</v>
       </c>
       <c r="G51">
-        <v>2619101979.44</v>
+        <v>8998800964.785</v>
       </c>
       <c r="H51">
-        <v>1166</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
